--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>245352.9147945328</v>
+        <v>238764.3893217045</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19233775.41034232</v>
+        <v>19233775.41034231</v>
       </c>
     </row>
     <row r="8">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>123.6621491913813</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.8866644877579</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>119.2878878475953</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>85.31857412307389</v>
+        <v>147.7538637846492</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>132.3542293754693</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -828,16 +828,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,20 +895,20 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>219.9483858441846</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="D5" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="E5" t="n">
-        <v>343.646568403991</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,25 +977,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>41.82514761075013</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>159.6908732144031</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166.7165542762729</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -1065,16 +1065,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>50.61035817443111</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>340.5116906995511</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>219.9483858441846</v>
+      </c>
+      <c r="F8" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.9000023092308</v>
+        <v>104.9544957606159</v>
       </c>
       <c r="C9" t="n">
         <v>132.6551205385437</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>107.0481566235592</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
         <v>195.3773027531635</v>
@@ -1277,10 +1277,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X9" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="10">
@@ -1308,7 +1308,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>8.227387506570977</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.05410598379243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>156.1482870966486</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>10.35000743683651</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>402.9937101757981</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>290.9290925200442</v>
       </c>
       <c r="I11" t="n">
-        <v>21.98105529738169</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>96.39061873367314</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.77340246483</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>105.0388331230853</v>
       </c>
       <c r="H12" t="n">
-        <v>61.52748067914077</v>
+        <v>61.52748067914111</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>126.3276840645402</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.8389690906254</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>141.5417272291555</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>92.96130374789561</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.9960562298768</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9298613571687</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>231.7301022327946</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>318.2435648922039</v>
       </c>
       <c r="G14" t="n">
-        <v>82.59044549259067</v>
+        <v>402.9937101757981</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>290.9290925200442</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>96.39061873367314</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.77340246483</v>
       </c>
       <c r="U14" t="n">
         <v>254.3581035358611</v>
@@ -1703,7 +1703,7 @@
         <v>105.0388331230853</v>
       </c>
       <c r="H15" t="n">
-        <v>61.52748067914111</v>
+        <v>61.52748067914077</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.3550141066488</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>171.6505236560984</v>
       </c>
       <c r="T16" t="n">
-        <v>17.89674771830033</v>
+        <v>233.9960562298768</v>
       </c>
       <c r="U16" t="n">
         <v>279.9298613571687</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>362.4454048049029</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>21.98105529738169</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>96.39061873367314</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.77340246483</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.3581035358611</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>183.0611926410014</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2013,16 +2013,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>164.8389690906254</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>141.5417272291555</v>
       </c>
       <c r="I19" t="n">
-        <v>92.96130374789561</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>171.6505236560984</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.9960562298768</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9298613571687</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>152.1196987934059</v>
+        <v>76.94452432503374</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>331.8435578976234</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.9937101757981</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>21.98105529738169</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>96.39061873367314</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>353.3493663464309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.8389690906254</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>141.5417272291555</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>92.96130374789561</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>51.19554760057107</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>171.6505236560984</v>
+        <v>107.4997207824921</v>
       </c>
       <c r="T22" t="n">
-        <v>177.6607324797142</v>
+        <v>233.9960562298768</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9298613571687</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2323,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>75.55431674675654</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>96.39061873367314</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3581035358611</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>346.3349299555773</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>101.1020966991062</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>51.19554760057107</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>49.90654909853511</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>233.9960562298768</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>358.4972786331386</v>
+        <v>402.9937101757981</v>
       </c>
       <c r="H26" t="n">
-        <v>290.9290925200442</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>21.98105529738169</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>212.77340246483</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3581035358611</v>
+        <v>88.5056974920507</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4834610219709</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>164.8389690906254</v>
       </c>
       <c r="H28" t="n">
-        <v>119.817751996387</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>171.6505236560984</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>233.9960562298768</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.9937101757981</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>7.010187229546843</v>
+        <v>21.98105529738169</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>96.39061873367314</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>221.7021326894435</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>46.21186921200734</v>
+        <v>164.8389690906254</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>92.96130374789561</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>51.19554760057107</v>
       </c>
       <c r="S31" t="n">
-        <v>171.6505236560984</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.9960562298768</v>
       </c>
       <c r="U31" t="n">
         <v>279.9298613571687</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>139.609093156963</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>29.9131318936321</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>353.3493663464311</v>
+        <v>402.9937101757981</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>290.9290925200442</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>21.98105529738169</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.77340246483</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3581035358611</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>52.70119958796084</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>101.1020966991065</v>
       </c>
       <c r="G34" t="n">
-        <v>164.8389690906254</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>141.5417272291555</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>92.96130374789561</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.9960562298768</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9298613571687</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>353.3493663464311</v>
+        <v>181.1377836647282</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>21.98105529738169</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.77340246483</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>100.3483822414235</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -3432,7 +3432,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>92.96130374789561</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.9960562298768</v>
       </c>
       <c r="U37" t="n">
-        <v>36.34322858679725</v>
+        <v>279.9298613571687</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3489,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>192.4415282321169</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>171.0285632521037</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>21.98105529738169</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>96.39061873367314</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.77340246483</v>
       </c>
       <c r="U38" t="n">
         <v>254.3581035358611</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3675,13 +3675,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>164.8389690906254</v>
+        <v>15.47610238735643</v>
       </c>
       <c r="H40" t="n">
-        <v>141.5417272291555</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>92.96130374789561</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>171.6505236560984</v>
       </c>
       <c r="T40" t="n">
         <v>233.9960562298768</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9298613571687</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.2710476187385211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>166.3571095076545</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>21.98105529738169</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>96.39061873367314</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.77340246483</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>331.8435578976234</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>105.0388331230853</v>
       </c>
       <c r="H42" t="n">
-        <v>61.52748067914077</v>
+        <v>61.52748067914111</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3912,13 +3912,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>164.8389690906254</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>141.5417272291555</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>92.96130374789561</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>51.19554760057107</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>171.6505236560984</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.9960562298768</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9298613571687</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>125.7551030444979</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>191.4115579054934</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>290.9290925200442</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>21.98105529738169</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>96.39061873367314</v>
       </c>
       <c r="T44" t="n">
         <v>212.77340246483</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3581035358611</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>200.5703151478043</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.0774361037849</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>126.7570228566934</v>
+        <v>46.42883390885859</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1338.404634947726</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C2" t="n">
-        <v>1338.404634947726</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3109180283154</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E2" t="n">
-        <v>550.2172011089044</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F2" t="n">
-        <v>156.1234841894934</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G2" t="n">
         <v>31.21222238001735</v>
@@ -4330,22 +4330,22 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J2" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K2" t="n">
-        <v>31.21222238001735</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L2" t="n">
-        <v>31.21222238001735</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="M2" t="n">
-        <v>417.4634743327321</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="N2" t="n">
-        <v>803.7147262854468</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="O2" t="n">
-        <v>1189.965978238161</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P2" t="n">
         <v>1560.611119000868</v>
@@ -4357,25 +4357,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S2" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T2" t="n">
-        <v>1338.404634947726</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U2" t="n">
-        <v>1338.404634947726</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V2" t="n">
-        <v>1338.404634947726</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="W2" t="n">
-        <v>1338.404634947726</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="X2" t="n">
-        <v>1338.404634947726</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="Y2" t="n">
-        <v>1338.404634947726</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>710.0430642665517</v>
+        <v>593.1459064859441</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0479930154975</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="D3" t="n">
         <v>459.1508352348899</v>
@@ -4412,25 +4412,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K3" t="n">
-        <v>31.21222238001735</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="L3" t="n">
-        <v>31.21222238001735</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="M3" t="n">
-        <v>52.01289845874021</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="N3" t="n">
-        <v>438.2641504114549</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="O3" t="n">
-        <v>824.5154023641696</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P3" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q3" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R3" t="n">
         <v>1560.611119000868</v>
@@ -4448,13 +4448,13 @@
         <v>1095.928434440403</v>
       </c>
       <c r="W3" t="n">
-        <v>1095.928434440403</v>
+        <v>882.6952661767319</v>
       </c>
       <c r="X3" t="n">
-        <v>1009.748056538308</v>
+        <v>733.4489391215308</v>
       </c>
       <c r="Y3" t="n">
-        <v>850.3460969021384</v>
+        <v>733.4489391215308</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1120.546072681154</v>
+        <v>485.3088229720902</v>
       </c>
       <c r="C4" t="n">
-        <v>949.4527002428704</v>
+        <v>351.6176821887879</v>
       </c>
       <c r="D4" t="n">
-        <v>789.9580555657803</v>
+        <v>192.1230375116979</v>
       </c>
       <c r="E4" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F4" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G4" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H4" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I4" t="n">
         <v>31.21222238001735</v>
@@ -4518,22 +4518,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T4" t="n">
-        <v>1560.611119000868</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U4" t="n">
-        <v>1560.611119000868</v>
+        <v>1038.264232523694</v>
       </c>
       <c r="V4" t="n">
-        <v>1560.611119000868</v>
+        <v>764.3784874632158</v>
       </c>
       <c r="W4" t="n">
-        <v>1560.611119000868</v>
+        <v>485.3088229720902</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.981477686434</v>
+        <v>485.3088229720902</v>
       </c>
       <c r="Y4" t="n">
-        <v>1308.245779075198</v>
+        <v>485.3088229720902</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1166.517402081457</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="C5" t="n">
-        <v>772.4236851620456</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="D5" t="n">
-        <v>378.3299682426345</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="E5" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F5" t="n">
         <v>31.21222238001735</v>
@@ -4567,25 +4567,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J5" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K5" t="n">
-        <v>417.4634743327321</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L5" t="n">
-        <v>803.7147262854468</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M5" t="n">
-        <v>1189.965978238161</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N5" t="n">
-        <v>1520.054473311303</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O5" t="n">
-        <v>1520.054473311303</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P5" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q5" t="n">
         <v>1520.054473311303</v>
@@ -4594,25 +4594,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S5" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T5" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U5" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="V5" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="W5" t="n">
-        <v>1560.611119000868</v>
+        <v>1041.569742930137</v>
       </c>
       <c r="X5" t="n">
-        <v>1560.611119000868</v>
+        <v>1041.569742930137</v>
       </c>
       <c r="Y5" t="n">
-        <v>1560.611119000868</v>
+        <v>1041.569742930137</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>710.0430642665517</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C6" t="n">
-        <v>576.0479930154975</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="D6" t="n">
-        <v>459.1508352348899</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="E6" t="n">
-        <v>338.6580192272179</v>
+        <v>180.4499589149212</v>
       </c>
       <c r="F6" t="n">
-        <v>229.6981394097224</v>
+        <v>180.4499589149212</v>
       </c>
       <c r="G6" t="n">
-        <v>122.7080267240611</v>
+        <v>73.45984622925991</v>
       </c>
       <c r="H6" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I6" t="n">
         <v>31.21222238001735</v>
@@ -4658,7 +4658,7 @@
         <v>31.21222238001735</v>
       </c>
       <c r="N6" t="n">
-        <v>417.4634743327321</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="O6" t="n">
         <v>794.9558830015396</v>
@@ -4676,22 +4676,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T6" t="n">
-        <v>1560.611119000868</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U6" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V6" t="n">
-        <v>1399.307206663087</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W6" t="n">
-        <v>1186.074038399415</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X6" t="n">
-        <v>1009.748056538308</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y6" t="n">
-        <v>850.3460969021384</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1120.546072681154</v>
+        <v>723.4400837351815</v>
       </c>
       <c r="C7" t="n">
-        <v>949.4527002428704</v>
+        <v>552.346711296898</v>
       </c>
       <c r="D7" t="n">
-        <v>789.9580555657803</v>
+        <v>392.852066619808</v>
       </c>
       <c r="E7" t="n">
-        <v>629.0472404340999</v>
+        <v>231.9412514881275</v>
       </c>
       <c r="F7" t="n">
-        <v>464.4161145446911</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="G7" t="n">
-        <v>297.1657234702345</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H7" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I7" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J7" t="n">
-        <v>45.29477178522788</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K7" t="n">
         <v>199.8470995074659</v>
@@ -4743,34 +4743,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P7" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q7" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R7" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S7" t="n">
-        <v>1288.946632556177</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T7" t="n">
-        <v>1288.946632556177</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U7" t="n">
-        <v>1288.946632556177</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="V7" t="n">
-        <v>1288.946632556177</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="W7" t="n">
-        <v>1288.946632556177</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="X7" t="n">
-        <v>1288.946632556177</v>
+        <v>1135.875488740461</v>
       </c>
       <c r="Y7" t="n">
-        <v>1288.946632556177</v>
+        <v>911.1397901292258</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>822.5661993546372</v>
+        <v>1041.569742930137</v>
       </c>
       <c r="C8" t="n">
-        <v>428.4724824352262</v>
+        <v>1041.569742930137</v>
       </c>
       <c r="D8" t="n">
-        <v>428.4724824352262</v>
+        <v>1041.569742930137</v>
       </c>
       <c r="E8" t="n">
-        <v>428.4724824352262</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="F8" t="n">
-        <v>428.4724824352262</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="G8" t="n">
-        <v>428.4724824352262</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H8" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I8" t="n">
         <v>31.21222238001735</v>
@@ -4807,13 +4807,13 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K8" t="n">
-        <v>417.4634743327321</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L8" t="n">
-        <v>417.4634743327321</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M8" t="n">
-        <v>417.4634743327321</v>
+        <v>80.69635634743145</v>
       </c>
       <c r="N8" t="n">
         <v>466.9476083001462</v>
@@ -4831,25 +4831,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S8" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T8" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U8" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="V8" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="W8" t="n">
-        <v>1560.611119000868</v>
+        <v>1041.569742930137</v>
       </c>
       <c r="X8" t="n">
-        <v>1560.611119000868</v>
+        <v>1041.569742930137</v>
       </c>
       <c r="Y8" t="n">
-        <v>1166.517402081457</v>
+        <v>1041.569742930137</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J9" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K9" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L9" t="n">
-        <v>417.4634743327321</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4634743327321</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="N9" t="n">
-        <v>417.4634743327321</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O9" t="n">
-        <v>794.9558830015396</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P9" t="n">
         <v>1181.207134954254</v>
@@ -4913,22 +4913,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T9" t="n">
-        <v>1452.481667865959</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U9" t="n">
-        <v>1255.130857004178</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V9" t="n">
-        <v>1041.419329997212</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W9" t="n">
-        <v>828.1861617335405</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X9" t="n">
-        <v>651.8601798724333</v>
+        <v>776.973749055457</v>
       </c>
       <c r="Y9" t="n">
-        <v>651.8601798724333</v>
+        <v>617.571789419287</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1004.20002678548</v>
+        <v>854.5925715909368</v>
       </c>
       <c r="C10" t="n">
-        <v>833.1066543471966</v>
+        <v>683.4991991526533</v>
       </c>
       <c r="D10" t="n">
-        <v>673.6120096701065</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E10" t="n">
-        <v>512.7011945384261</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0700686490173</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G10" t="n">
-        <v>180.8196775745607</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H10" t="n">
         <v>31.21222238001735</v>
@@ -4962,7 +4962,7 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J10" t="n">
-        <v>45.29477178522788</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K10" t="n">
         <v>199.8470995074659</v>
@@ -4980,34 +4980,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P10" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q10" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R10" t="n">
-        <v>1560.611119000867</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S10" t="n">
-        <v>1560.611119000867</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T10" t="n">
-        <v>1560.611119000867</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U10" t="n">
-        <v>1277.812971546992</v>
+        <v>1280.636140125298</v>
       </c>
       <c r="V10" t="n">
-        <v>1277.812971546992</v>
+        <v>1280.636140125298</v>
       </c>
       <c r="W10" t="n">
-        <v>1277.812971546992</v>
+        <v>1280.636140125298</v>
       </c>
       <c r="X10" t="n">
-        <v>1277.812971546992</v>
+        <v>1042.292277984981</v>
       </c>
       <c r="Y10" t="n">
-        <v>1191.899733179524</v>
+        <v>1042.292277984981</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1188.66606971941</v>
+        <v>913.3598159660862</v>
       </c>
       <c r="C11" t="n">
-        <v>1188.66606971941</v>
+        <v>755.6342734442189</v>
       </c>
       <c r="D11" t="n">
-        <v>1188.66606971941</v>
+        <v>755.6342734442189</v>
       </c>
       <c r="E11" t="n">
-        <v>774.3258542363069</v>
+        <v>755.6342734442189</v>
       </c>
       <c r="F11" t="n">
-        <v>763.8713012698054</v>
+        <v>334.6038613979065</v>
       </c>
       <c r="G11" t="n">
-        <v>356.806947556878</v>
+        <v>334.6038613979065</v>
       </c>
       <c r="H11" t="n">
-        <v>62.93917733461108</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="I11" t="n">
-        <v>40.73609117563968</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="J11" t="n">
-        <v>397.1837100903595</v>
+        <v>106.5593902090977</v>
       </c>
       <c r="K11" t="n">
-        <v>516.384872301101</v>
+        <v>225.7605524198393</v>
       </c>
       <c r="L11" t="n">
-        <v>679.2096680637733</v>
+        <v>388.5853481825116</v>
       </c>
       <c r="M11" t="n">
-        <v>873.2097484940041</v>
+        <v>582.5854286127425</v>
       </c>
       <c r="N11" t="n">
-        <v>1072.217545439863</v>
+        <v>1086.694556911283</v>
       </c>
       <c r="O11" t="n">
-        <v>1254.73418409389</v>
+        <v>1269.21119556531</v>
       </c>
       <c r="P11" t="n">
-        <v>1396.535007165551</v>
+        <v>1411.012018636971</v>
       </c>
       <c r="Q11" t="n">
         <v>1893.806030630993</v>
@@ -5071,22 +5071,22 @@
         <v>1939.440297434839</v>
       </c>
       <c r="T11" t="n">
-        <v>1939.440297434839</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="U11" t="n">
-        <v>1939.440297434839</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="V11" t="n">
-        <v>1589.60274277132</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="W11" t="n">
-        <v>1589.60274277132</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="X11" t="n">
-        <v>1589.60274277132</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="Y11" t="n">
-        <v>1188.66606971941</v>
+        <v>1323.580995630576</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>102.8850615586105</v>
       </c>
       <c r="H12" t="n">
-        <v>40.73609117563968</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="I12" t="n">
-        <v>50.44264462921939</v>
+        <v>50.44264462921938</v>
       </c>
       <c r="J12" t="n">
         <v>325.6937265558564</v>
       </c>
       <c r="K12" t="n">
-        <v>829.8028548543974</v>
+        <v>829.8028548543973</v>
       </c>
       <c r="L12" t="n">
-        <v>1296.099762937768</v>
+        <v>963.7069897276439</v>
       </c>
       <c r="M12" t="n">
-        <v>1460.199104094601</v>
+        <v>1127.806330884477</v>
       </c>
       <c r="N12" t="n">
-        <v>1634.477167709904</v>
+        <v>1302.08439449978</v>
       </c>
       <c r="O12" t="n">
-        <v>1784.908530879047</v>
+        <v>1452.515757668923</v>
       </c>
       <c r="P12" t="n">
-        <v>1897.813070257003</v>
+        <v>1565.420297046879</v>
       </c>
       <c r="Q12" t="n">
         <v>1953.069490276007</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1100.24180695622</v>
+        <v>262.2401192690091</v>
       </c>
       <c r="C13" t="n">
-        <v>929.1484345179367</v>
+        <v>262.2401192690091</v>
       </c>
       <c r="D13" t="n">
-        <v>769.6537898408467</v>
+        <v>134.6363979916958</v>
       </c>
       <c r="E13" t="n">
-        <v>608.7429747091662</v>
+        <v>134.6363979916958</v>
       </c>
       <c r="F13" t="n">
-        <v>444.1118488197575</v>
+        <v>134.6363979916958</v>
       </c>
       <c r="G13" t="n">
-        <v>277.6078396373075</v>
+        <v>134.6363979916958</v>
       </c>
       <c r="H13" t="n">
-        <v>134.6363979916959</v>
+        <v>134.6363979916958</v>
       </c>
       <c r="I13" t="n">
-        <v>40.73609117563968</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="J13" t="n">
         <v>106.5377332703983</v>
@@ -5211,40 +5211,40 @@
         <v>1118.670448993012</v>
       </c>
       <c r="N13" t="n">
-        <v>1252.91153086034</v>
+        <v>1511.453102705658</v>
       </c>
       <c r="O13" t="n">
-        <v>1615.870424989964</v>
+        <v>1874.411996835281</v>
       </c>
       <c r="P13" t="n">
-        <v>1910.02095963867</v>
+        <v>1910.020959638669</v>
       </c>
       <c r="Q13" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="R13" t="n">
-        <v>1985.091884437973</v>
+        <v>1985.091884437972</v>
       </c>
       <c r="S13" t="n">
-        <v>1985.091884437973</v>
+        <v>1985.091884437972</v>
       </c>
       <c r="T13" t="n">
-        <v>1985.091884437973</v>
+        <v>1748.732231680521</v>
       </c>
       <c r="U13" t="n">
-        <v>1985.091884437973</v>
+        <v>1465.974795966209</v>
       </c>
       <c r="V13" t="n">
-        <v>1985.091884437973</v>
+        <v>1192.089050905731</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.021074101816</v>
+        <v>913.0193864146054</v>
       </c>
       <c r="X13" t="n">
-        <v>1512.6772119615</v>
+        <v>674.6755242742888</v>
       </c>
       <c r="Y13" t="n">
-        <v>1287.941513350265</v>
+        <v>449.9398256630535</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1369.656001808544</v>
+        <v>1467.590291373535</v>
       </c>
       <c r="C14" t="n">
-        <v>959.5314111218137</v>
+        <v>1467.590291373535</v>
       </c>
       <c r="D14" t="n">
-        <v>959.5314111218137</v>
+        <v>1063.126361466595</v>
       </c>
       <c r="E14" t="n">
-        <v>545.1911956387104</v>
+        <v>1063.126361466595</v>
       </c>
       <c r="F14" t="n">
-        <v>124.1607835923979</v>
+        <v>741.6682151108339</v>
       </c>
       <c r="G14" t="n">
-        <v>40.73609117563967</v>
+        <v>334.6038613979065</v>
       </c>
       <c r="H14" t="n">
         <v>40.73609117563967</v>
@@ -5278,25 +5278,25 @@
         <v>40.73609117563967</v>
       </c>
       <c r="J14" t="n">
-        <v>106.5593902090977</v>
+        <v>422.5702171530125</v>
       </c>
       <c r="K14" t="n">
-        <v>225.7605524198393</v>
+        <v>926.6793454515534</v>
       </c>
       <c r="L14" t="n">
-        <v>729.8696807183803</v>
+        <v>1089.504141214226</v>
       </c>
       <c r="M14" t="n">
-        <v>923.8697611486111</v>
+        <v>1283.504221644456</v>
       </c>
       <c r="N14" t="n">
-        <v>1122.87755809447</v>
+        <v>1482.512018590315</v>
       </c>
       <c r="O14" t="n">
-        <v>1305.394196748497</v>
+        <v>1665.028657244342</v>
       </c>
       <c r="P14" t="n">
-        <v>1447.195019820158</v>
+        <v>1806.829480316003</v>
       </c>
       <c r="Q14" t="n">
         <v>1893.806030630993</v>
@@ -5305,25 +5305,25 @@
         <v>2036.804558781984</v>
       </c>
       <c r="S14" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="T14" t="n">
-        <v>2036.804558781984</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="U14" t="n">
-        <v>1779.877181473033</v>
+        <v>1467.590291373535</v>
       </c>
       <c r="V14" t="n">
-        <v>1779.877181473033</v>
+        <v>1467.590291373535</v>
       </c>
       <c r="W14" t="n">
-        <v>1779.877181473033</v>
+        <v>1467.590291373535</v>
       </c>
       <c r="X14" t="n">
-        <v>1779.877181473033</v>
+        <v>1467.590291373535</v>
       </c>
       <c r="Y14" t="n">
-        <v>1779.877181473033</v>
+        <v>1467.590291373535</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>689.3298178528997</v>
+        <v>689.3298178528993</v>
       </c>
       <c r="C15" t="n">
-        <v>555.3347466018454</v>
+        <v>555.334746601845</v>
       </c>
       <c r="D15" t="n">
-        <v>438.4375888212378</v>
+        <v>438.4375888212373</v>
       </c>
       <c r="E15" t="n">
-        <v>317.9447728135658</v>
+        <v>317.9447728135654</v>
       </c>
       <c r="F15" t="n">
-        <v>208.9848929960704</v>
+        <v>208.9848929960699</v>
       </c>
       <c r="G15" t="n">
-        <v>102.8850615586105</v>
+        <v>102.8850615586101</v>
       </c>
       <c r="H15" t="n">
         <v>40.73609117563967</v>
@@ -5357,34 +5357,34 @@
         <v>50.44264462921938</v>
       </c>
       <c r="J15" t="n">
-        <v>82.02532258122318</v>
+        <v>325.6937265558564</v>
       </c>
       <c r="K15" t="n">
-        <v>586.1344508797641</v>
+        <v>829.8028548543973</v>
       </c>
       <c r="L15" t="n">
-        <v>720.0385857530107</v>
+        <v>963.7069897276439</v>
       </c>
       <c r="M15" t="n">
-        <v>884.1379269098438</v>
+        <v>1127.806330884477</v>
       </c>
       <c r="N15" t="n">
-        <v>1327.007647295296</v>
+        <v>1302.08439449978</v>
       </c>
       <c r="O15" t="n">
-        <v>1477.439010464439</v>
+        <v>1452.515757668923</v>
       </c>
       <c r="P15" t="n">
-        <v>1981.54813876298</v>
+        <v>1897.813070257003</v>
       </c>
       <c r="Q15" t="n">
-        <v>2036.804558781984</v>
+        <v>1953.069490276007</v>
       </c>
       <c r="R15" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="S15" t="n">
-        <v>1945.351132607402</v>
+        <v>1945.351132607401</v>
       </c>
       <c r="T15" t="n">
         <v>1789.597726983432</v>
@@ -5393,16 +5393,16 @@
         <v>1592.305487256401</v>
       </c>
       <c r="V15" t="n">
-        <v>1378.593960249435</v>
+        <v>1378.593960249434</v>
       </c>
       <c r="W15" t="n">
-        <v>1165.360791985764</v>
+        <v>1165.360791985763</v>
       </c>
       <c r="X15" t="n">
-        <v>989.0348101246564</v>
+        <v>989.0348101246559</v>
       </c>
       <c r="Y15" t="n">
-        <v>829.6328504884864</v>
+        <v>829.6328504884859</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>532.2349234226937</v>
+        <v>328.2681326776725</v>
       </c>
       <c r="C16" t="n">
-        <v>361.1415509844102</v>
+        <v>328.2681326776725</v>
       </c>
       <c r="D16" t="n">
-        <v>201.6469063073202</v>
+        <v>328.2681326776725</v>
       </c>
       <c r="E16" t="n">
-        <v>40.73609117563967</v>
+        <v>167.357317545992</v>
       </c>
       <c r="F16" t="n">
         <v>40.73609117563967</v>
@@ -5445,16 +5445,16 @@
         <v>714.7359135444333</v>
       </c>
       <c r="M16" t="n">
-        <v>986.4028373535311</v>
+        <v>1118.670448993012</v>
       </c>
       <c r="N16" t="n">
-        <v>1379.185491066177</v>
+        <v>1511.453102705658</v>
       </c>
       <c r="O16" t="n">
-        <v>1742.144385195801</v>
+        <v>1874.411996835281</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.294919844506</v>
+        <v>1910.020959638669</v>
       </c>
       <c r="Q16" t="n">
         <v>2036.804558781984</v>
@@ -5463,25 +5463,25 @@
         <v>2036.804558781984</v>
       </c>
       <c r="S16" t="n">
-        <v>2036.804558781984</v>
+        <v>1863.420191452591</v>
       </c>
       <c r="T16" t="n">
-        <v>2018.727035834205</v>
+        <v>1627.06053869514</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.969600119894</v>
+        <v>1344.303102980828</v>
       </c>
       <c r="V16" t="n">
-        <v>1462.083855059416</v>
+        <v>1070.41735792035</v>
       </c>
       <c r="W16" t="n">
-        <v>1183.01419056829</v>
+        <v>791.3476934292244</v>
       </c>
       <c r="X16" t="n">
-        <v>944.6703284279733</v>
+        <v>553.0038312889078</v>
       </c>
       <c r="Y16" t="n">
-        <v>719.934629816738</v>
+        <v>328.2681326776725</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1225.646706065584</v>
+        <v>881.7433227246538</v>
       </c>
       <c r="C17" t="n">
-        <v>1225.646706065584</v>
+        <v>881.7433227246538</v>
       </c>
       <c r="D17" t="n">
-        <v>821.1827761586449</v>
+        <v>477.2793928177144</v>
       </c>
       <c r="E17" t="n">
-        <v>406.8425606755416</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="F17" t="n">
-        <v>40.73609117563967</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="G17" t="n">
-        <v>40.73609117563967</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="H17" t="n">
-        <v>40.73609117563967</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="I17" t="n">
         <v>40.73609117563967</v>
@@ -5524,16 +5524,16 @@
         <v>715.3611750702407</v>
       </c>
       <c r="M17" t="n">
-        <v>909.3612555004715</v>
+        <v>1219.470303368782</v>
       </c>
       <c r="N17" t="n">
-        <v>1108.36905244633</v>
+        <v>1418.478100314641</v>
       </c>
       <c r="O17" t="n">
-        <v>1290.885691100357</v>
+        <v>1600.994738968668</v>
       </c>
       <c r="P17" t="n">
-        <v>1432.686514172018</v>
+        <v>1742.795562040329</v>
       </c>
       <c r="Q17" t="n">
         <v>1893.806030630993</v>
@@ -5542,25 +5542,25 @@
         <v>2036.804558781984</v>
       </c>
       <c r="S17" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="T17" t="n">
-        <v>2036.804558781984</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="U17" t="n">
-        <v>2036.804558781984</v>
+        <v>1467.590291373535</v>
       </c>
       <c r="V17" t="n">
-        <v>2036.804558781984</v>
+        <v>1467.590291373535</v>
       </c>
       <c r="W17" t="n">
-        <v>2036.804558781984</v>
+        <v>1467.590291373535</v>
       </c>
       <c r="X17" t="n">
-        <v>2036.804558781984</v>
+        <v>1282.679995776564</v>
       </c>
       <c r="Y17" t="n">
-        <v>1635.867885730074</v>
+        <v>881.7433227246538</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>40.73609117563967</v>
       </c>
       <c r="I18" t="n">
-        <v>40.73609117563967</v>
+        <v>50.44264462921938</v>
       </c>
       <c r="J18" t="n">
-        <v>315.9871731022767</v>
+        <v>82.02532258122318</v>
       </c>
       <c r="K18" t="n">
-        <v>401.6197041507777</v>
+        <v>586.1344508797641</v>
       </c>
       <c r="L18" t="n">
-        <v>905.7288324493187</v>
+        <v>720.0385857530107</v>
       </c>
       <c r="M18" t="n">
-        <v>1152.729583679993</v>
+        <v>884.1379269098438</v>
       </c>
       <c r="N18" t="n">
-        <v>1327.007647295296</v>
+        <v>1058.415990525147</v>
       </c>
       <c r="O18" t="n">
-        <v>1477.439010464439</v>
+        <v>1208.847353694289</v>
       </c>
       <c r="P18" t="n">
-        <v>1981.54813876298</v>
+        <v>1575.577981759206</v>
       </c>
       <c r="Q18" t="n">
         <v>2036.804558781984</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>633.1445947441098</v>
+        <v>846.846855463074</v>
       </c>
       <c r="C19" t="n">
-        <v>462.0512223058263</v>
+        <v>675.7534830247905</v>
       </c>
       <c r="D19" t="n">
-        <v>462.0512223058263</v>
+        <v>675.7534830247905</v>
       </c>
       <c r="E19" t="n">
-        <v>301.1404071741458</v>
+        <v>514.84266789311</v>
       </c>
       <c r="F19" t="n">
-        <v>301.1404071741458</v>
+        <v>350.2115420037013</v>
       </c>
       <c r="G19" t="n">
-        <v>134.6363979916958</v>
+        <v>183.7075328212513</v>
       </c>
       <c r="H19" t="n">
-        <v>134.6363979916958</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="I19" t="n">
         <v>40.73609117563967</v>
@@ -5682,7 +5682,7 @@
         <v>714.7359135444333</v>
       </c>
       <c r="M19" t="n">
-        <v>1118.670448993012</v>
+        <v>860.1288771476941</v>
       </c>
       <c r="N19" t="n">
         <v>1252.91153086034</v>
@@ -5703,22 +5703,22 @@
         <v>1811.70751710858</v>
       </c>
       <c r="T19" t="n">
-        <v>1811.70751710858</v>
+        <v>1575.347864351129</v>
       </c>
       <c r="U19" t="n">
-        <v>1528.950081394268</v>
+        <v>1575.347864351129</v>
       </c>
       <c r="V19" t="n">
-        <v>1375.293819986787</v>
+        <v>1497.62612260867</v>
       </c>
       <c r="W19" t="n">
-        <v>1096.224155495662</v>
+        <v>1497.62612260867</v>
       </c>
       <c r="X19" t="n">
-        <v>857.8802933553451</v>
+        <v>1259.282260468354</v>
       </c>
       <c r="Y19" t="n">
-        <v>633.1445947441098</v>
+        <v>1034.546561857118</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1269.664827252412</v>
+        <v>470.0035310475384</v>
       </c>
       <c r="C20" t="n">
-        <v>859.5402365656824</v>
+        <v>470.0035310475384</v>
       </c>
       <c r="D20" t="n">
-        <v>455.076306658743</v>
+        <v>470.0035310475384</v>
       </c>
       <c r="E20" t="n">
-        <v>40.73609117563967</v>
+        <v>470.0035310475384</v>
       </c>
       <c r="F20" t="n">
-        <v>40.73609117563967</v>
+        <v>470.0035310475384</v>
       </c>
       <c r="G20" t="n">
-        <v>40.73609117563967</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="H20" t="n">
-        <v>40.73609117563967</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="I20" t="n">
         <v>40.73609117563967</v>
       </c>
       <c r="J20" t="n">
-        <v>433.3352170968269</v>
+        <v>397.1837100903592</v>
       </c>
       <c r="K20" t="n">
-        <v>926.6793454515534</v>
+        <v>516.3848723011008</v>
       </c>
       <c r="L20" t="n">
-        <v>1089.504141214226</v>
+        <v>679.2096680637731</v>
       </c>
       <c r="M20" t="n">
-        <v>1283.504221644456</v>
+        <v>873.2097484940039</v>
       </c>
       <c r="N20" t="n">
-        <v>1482.512018590315</v>
+        <v>1072.217545439863</v>
       </c>
       <c r="O20" t="n">
-        <v>1665.028657244342</v>
+        <v>1254.73418409389</v>
       </c>
       <c r="P20" t="n">
-        <v>1806.829480316003</v>
+        <v>1396.535007165551</v>
       </c>
       <c r="Q20" t="n">
         <v>1893.806030630993</v>
@@ -5779,25 +5779,25 @@
         <v>2036.804558781984</v>
       </c>
       <c r="S20" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="T20" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="U20" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="V20" t="n">
-        <v>2036.804558781984</v>
+        <v>1589.60274277132</v>
       </c>
       <c r="W20" t="n">
-        <v>2036.804558781984</v>
+        <v>1205.842441906488</v>
       </c>
       <c r="X20" t="n">
-        <v>2036.804558781984</v>
+        <v>805.199044075441</v>
       </c>
       <c r="Y20" t="n">
-        <v>1679.886006916902</v>
+        <v>805.199044075441</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>325.6937265558564</v>
       </c>
       <c r="K21" t="n">
-        <v>562.4218667578615</v>
+        <v>756.2254710607473</v>
       </c>
       <c r="L21" t="n">
-        <v>696.3260016311081</v>
+        <v>890.1296059339938</v>
       </c>
       <c r="M21" t="n">
-        <v>860.4253427879412</v>
+        <v>1054.228947090827</v>
       </c>
       <c r="N21" t="n">
-        <v>1364.534471086482</v>
+        <v>1228.50701070613</v>
       </c>
       <c r="O21" t="n">
-        <v>1868.643599385023</v>
+        <v>1378.938373875273</v>
       </c>
       <c r="P21" t="n">
-        <v>1981.54813876298</v>
+        <v>1491.842913253229</v>
       </c>
       <c r="Q21" t="n">
-        <v>2036.804558781983</v>
+        <v>1953.069490276006</v>
       </c>
       <c r="R21" t="n">
         <v>2036.804558781983</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>940.7471622791302</v>
+        <v>205.3672170650484</v>
       </c>
       <c r="C22" t="n">
-        <v>769.6537898408467</v>
+        <v>205.3672170650484</v>
       </c>
       <c r="D22" t="n">
-        <v>769.6537898408467</v>
+        <v>205.3672170650484</v>
       </c>
       <c r="E22" t="n">
-        <v>608.7429747091662</v>
+        <v>205.3672170650484</v>
       </c>
       <c r="F22" t="n">
-        <v>444.1118488197575</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="G22" t="n">
-        <v>277.6078396373075</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="H22" t="n">
-        <v>134.6363979916958</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="I22" t="n">
         <v>40.73609117563967</v>
       </c>
       <c r="J22" t="n">
-        <v>106.5377332703983</v>
+        <v>41.5363696390619</v>
       </c>
       <c r="K22" t="n">
-        <v>346.0804177590531</v>
+        <v>213.8128061195727</v>
       </c>
       <c r="L22" t="n">
-        <v>714.7359135444333</v>
+        <v>582.4683019049528</v>
       </c>
       <c r="M22" t="n">
         <v>986.4028373535311</v>
@@ -5934,28 +5934,28 @@
         <v>2036.804558781984</v>
       </c>
       <c r="R22" t="n">
-        <v>1985.091884437972</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="S22" t="n">
-        <v>1811.70751710858</v>
+        <v>1928.218982234012</v>
       </c>
       <c r="T22" t="n">
-        <v>1632.252231775535</v>
+        <v>1691.85932947656</v>
       </c>
       <c r="U22" t="n">
-        <v>1632.252231775535</v>
+        <v>1409.101893762248</v>
       </c>
       <c r="V22" t="n">
-        <v>1632.252231775535</v>
+        <v>1135.21614870177</v>
       </c>
       <c r="W22" t="n">
-        <v>1353.18256728441</v>
+        <v>856.1464842106448</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.18256728441</v>
+        <v>617.8026220703281</v>
       </c>
       <c r="Y22" t="n">
-        <v>1128.446868673175</v>
+        <v>393.0669234590928</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>876.1067187050554</v>
+        <v>521.5175127459696</v>
       </c>
       <c r="C23" t="n">
-        <v>876.1067187050554</v>
+        <v>521.5175127459696</v>
       </c>
       <c r="D23" t="n">
-        <v>876.1067187050554</v>
+        <v>117.0535828390301</v>
       </c>
       <c r="E23" t="n">
-        <v>461.7665032219521</v>
+        <v>117.0535828390301</v>
       </c>
       <c r="F23" t="n">
         <v>40.73609117563967</v>
@@ -5992,19 +5992,19 @@
         <v>433.3352170968269</v>
       </c>
       <c r="K23" t="n">
-        <v>926.6793454515534</v>
+        <v>552.5363793075685</v>
       </c>
       <c r="L23" t="n">
-        <v>1089.504141214226</v>
+        <v>715.3611750702407</v>
       </c>
       <c r="M23" t="n">
-        <v>1283.504221644456</v>
+        <v>909.3612555004715</v>
       </c>
       <c r="N23" t="n">
-        <v>1482.512018590315</v>
+        <v>1108.36905244633</v>
       </c>
       <c r="O23" t="n">
-        <v>1665.028657244342</v>
+        <v>1302.720352017462</v>
       </c>
       <c r="P23" t="n">
         <v>1806.829480316003</v>
@@ -6016,25 +6016,25 @@
         <v>2036.804558781984</v>
       </c>
       <c r="S23" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="T23" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="U23" t="n">
-        <v>2036.804558781984</v>
+        <v>1682.512920125888</v>
       </c>
       <c r="V23" t="n">
-        <v>2036.804558781984</v>
+        <v>1332.675365462369</v>
       </c>
       <c r="W23" t="n">
-        <v>2036.804558781984</v>
+        <v>1332.675365462369</v>
       </c>
       <c r="X23" t="n">
-        <v>1636.161160950936</v>
+        <v>1332.675365462369</v>
       </c>
       <c r="Y23" t="n">
-        <v>1286.327898369545</v>
+        <v>931.7386924104591</v>
       </c>
     </row>
     <row r="24">
@@ -6044,55 +6044,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>689.3298178528997</v>
+        <v>689.3298178528994</v>
       </c>
       <c r="C24" t="n">
-        <v>555.3347466018454</v>
+        <v>555.334746601845</v>
       </c>
       <c r="D24" t="n">
-        <v>438.4375888212378</v>
+        <v>438.4375888212375</v>
       </c>
       <c r="E24" t="n">
-        <v>317.9447728135658</v>
+        <v>317.9447728135655</v>
       </c>
       <c r="F24" t="n">
-        <v>208.9848929960704</v>
+        <v>208.98489299607</v>
       </c>
       <c r="G24" t="n">
-        <v>102.8850615586105</v>
+        <v>102.8850615586101</v>
       </c>
       <c r="H24" t="n">
         <v>40.73609117563967</v>
       </c>
       <c r="I24" t="n">
-        <v>50.44264462921938</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="J24" t="n">
-        <v>325.6937265558564</v>
+        <v>315.9871731022767</v>
       </c>
       <c r="K24" t="n">
-        <v>576.0898447455521</v>
+        <v>401.6197041507777</v>
       </c>
       <c r="L24" t="n">
-        <v>709.9939796187987</v>
+        <v>535.5238390240243</v>
       </c>
       <c r="M24" t="n">
-        <v>1214.10310791734</v>
+        <v>699.6231801808574</v>
       </c>
       <c r="N24" t="n">
-        <v>1718.212236215881</v>
+        <v>873.9012437961603</v>
       </c>
       <c r="O24" t="n">
-        <v>1868.643599385023</v>
+        <v>1024.332606965303</v>
       </c>
       <c r="P24" t="n">
-        <v>1981.54813876298</v>
+        <v>1491.842913253229</v>
       </c>
       <c r="Q24" t="n">
-        <v>2036.804558781984</v>
+        <v>1953.069490276006</v>
       </c>
       <c r="R24" t="n">
-        <v>2036.804558781984</v>
+        <v>2036.804558781983</v>
       </c>
       <c r="S24" t="n">
         <v>1945.351132607401</v>
@@ -6107,13 +6107,13 @@
         <v>1378.593960249435</v>
       </c>
       <c r="W24" t="n">
-        <v>1165.360791985764</v>
+        <v>1165.360791985763</v>
       </c>
       <c r="X24" t="n">
-        <v>989.0348101246564</v>
+        <v>989.034810124656</v>
       </c>
       <c r="Y24" t="n">
-        <v>829.6328504884864</v>
+        <v>829.632850488486</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.8294636139232</v>
+        <v>313.9527936130204</v>
       </c>
       <c r="C25" t="n">
-        <v>40.73609117563967</v>
+        <v>142.8594211747369</v>
       </c>
       <c r="D25" t="n">
-        <v>40.73609117563967</v>
+        <v>142.8594211747369</v>
       </c>
       <c r="E25" t="n">
         <v>40.73609117563967</v>
@@ -6156,43 +6156,43 @@
         <v>714.7359135444333</v>
       </c>
       <c r="M25" t="n">
-        <v>986.4028373535311</v>
+        <v>1118.670448993012</v>
       </c>
       <c r="N25" t="n">
-        <v>1379.185491066177</v>
+        <v>1511.453102705658</v>
       </c>
       <c r="O25" t="n">
-        <v>1742.144385195801</v>
+        <v>1615.870424989964</v>
       </c>
       <c r="P25" t="n">
-        <v>2036.294919844506</v>
+        <v>1910.020959638669</v>
       </c>
       <c r="Q25" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="R25" t="n">
-        <v>1985.091884437972</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="S25" t="n">
-        <v>1934.681228782886</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="T25" t="n">
-        <v>1698.321576025435</v>
+        <v>1800.444906024532</v>
       </c>
       <c r="U25" t="n">
-        <v>1415.564140311123</v>
+        <v>1517.68747031022</v>
       </c>
       <c r="V25" t="n">
-        <v>1141.678395250645</v>
+        <v>1243.801725249742</v>
       </c>
       <c r="W25" t="n">
-        <v>862.6087307595194</v>
+        <v>964.7320607586166</v>
       </c>
       <c r="X25" t="n">
-        <v>624.2648686192028</v>
+        <v>726.3881986183001</v>
       </c>
       <c r="Y25" t="n">
-        <v>399.5291700079675</v>
+        <v>501.6525000070648</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1117.752736710016</v>
+        <v>884.3437465306417</v>
       </c>
       <c r="C26" t="n">
-        <v>1117.752736710016</v>
+        <v>884.3437465306417</v>
       </c>
       <c r="D26" t="n">
-        <v>1117.752736710016</v>
+        <v>884.3437465306417</v>
       </c>
       <c r="E26" t="n">
-        <v>1117.752736710016</v>
+        <v>470.0035310475384</v>
       </c>
       <c r="F26" t="n">
-        <v>696.7223246637031</v>
+        <v>470.0035310475384</v>
       </c>
       <c r="G26" t="n">
-        <v>334.6038613979065</v>
+        <v>62.93917733461108</v>
       </c>
       <c r="H26" t="n">
-        <v>40.73609117563967</v>
+        <v>62.93917733461108</v>
       </c>
       <c r="I26" t="n">
-        <v>40.73609117563967</v>
+        <v>40.73609117563968</v>
       </c>
       <c r="J26" t="n">
         <v>433.3352170968269</v>
       </c>
       <c r="K26" t="n">
-        <v>552.5363793075685</v>
+        <v>691.3667073008146</v>
       </c>
       <c r="L26" t="n">
-        <v>715.3611750702407</v>
+        <v>854.1915030634868</v>
       </c>
       <c r="M26" t="n">
-        <v>909.3612555004715</v>
+        <v>1048.191583493718</v>
       </c>
       <c r="N26" t="n">
-        <v>1108.36905244633</v>
+        <v>1247.199380439577</v>
       </c>
       <c r="O26" t="n">
-        <v>1290.885691100357</v>
+        <v>1429.716019093604</v>
       </c>
       <c r="P26" t="n">
-        <v>1432.686514172018</v>
+        <v>1933.825147392145</v>
       </c>
       <c r="Q26" t="n">
-        <v>1893.806030630993</v>
+        <v>2020.801697707134</v>
       </c>
       <c r="R26" t="n">
         <v>2036.804558781984</v>
@@ -6256,22 +6256,22 @@
         <v>1939.440297434839</v>
       </c>
       <c r="T26" t="n">
-        <v>1724.517668682485</v>
+        <v>1724.517668682486</v>
       </c>
       <c r="U26" t="n">
-        <v>1467.590291373535</v>
+        <v>1635.117974246071</v>
       </c>
       <c r="V26" t="n">
-        <v>1117.752736710016</v>
+        <v>1285.280419582552</v>
       </c>
       <c r="W26" t="n">
-        <v>1117.752736710016</v>
+        <v>1285.280419582552</v>
       </c>
       <c r="X26" t="n">
-        <v>1117.752736710016</v>
+        <v>1285.280419582552</v>
       </c>
       <c r="Y26" t="n">
-        <v>1117.752736710016</v>
+        <v>884.3437465306417</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>689.3298178528992</v>
+        <v>689.3298178528997</v>
       </c>
       <c r="C27" t="n">
-        <v>555.3347466018449</v>
+        <v>555.3347466018455</v>
       </c>
       <c r="D27" t="n">
-        <v>438.4375888212373</v>
+        <v>438.4375888212378</v>
       </c>
       <c r="E27" t="n">
-        <v>317.9447728135654</v>
+        <v>317.9447728135658</v>
       </c>
       <c r="F27" t="n">
-        <v>208.9848929960699</v>
+        <v>208.9848929960704</v>
       </c>
       <c r="G27" t="n">
-        <v>102.8850615586102</v>
+        <v>102.8850615586105</v>
       </c>
       <c r="H27" t="n">
-        <v>40.73609117563967</v>
+        <v>40.73609117563968</v>
       </c>
       <c r="I27" t="n">
-        <v>40.73609117563967</v>
+        <v>50.44264462921939</v>
       </c>
       <c r="J27" t="n">
-        <v>315.9871731022767</v>
+        <v>325.6937265558564</v>
       </c>
       <c r="K27" t="n">
-        <v>510.1294748834863</v>
+        <v>756.2254710607477</v>
       </c>
       <c r="L27" t="n">
-        <v>644.0336097567329</v>
+        <v>890.1296059339943</v>
       </c>
       <c r="M27" t="n">
-        <v>808.132950913566</v>
+        <v>1054.228947090827</v>
       </c>
       <c r="N27" t="n">
-        <v>1312.242079212107</v>
+        <v>1228.50701070613</v>
       </c>
       <c r="O27" t="n">
-        <v>1462.67344238125</v>
+        <v>1378.938373875273</v>
       </c>
       <c r="P27" t="n">
-        <v>1575.577981759206</v>
+        <v>1491.842913253229</v>
       </c>
       <c r="Q27" t="n">
-        <v>2036.804558781984</v>
+        <v>1953.069490276007</v>
       </c>
       <c r="R27" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="S27" t="n">
-        <v>1945.351132607401</v>
+        <v>1945.351132607402</v>
       </c>
       <c r="T27" t="n">
         <v>1789.597726983432</v>
       </c>
       <c r="U27" t="n">
-        <v>1592.3054872564</v>
+        <v>1592.305487256401</v>
       </c>
       <c r="V27" t="n">
-        <v>1378.593960249434</v>
+        <v>1378.593960249435</v>
       </c>
       <c r="W27" t="n">
-        <v>1165.360791985763</v>
+        <v>1165.360791985764</v>
       </c>
       <c r="X27" t="n">
-        <v>989.0348101246558</v>
+        <v>989.0348101246564</v>
       </c>
       <c r="Y27" t="n">
-        <v>829.6328504884858</v>
+        <v>829.6328504884864</v>
       </c>
     </row>
     <row r="28">
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>328.2681326776725</v>
+        <v>501.652500007065</v>
       </c>
       <c r="C28" t="n">
-        <v>328.2681326776725</v>
+        <v>501.652500007065</v>
       </c>
       <c r="D28" t="n">
-        <v>328.2681326776725</v>
+        <v>371.8712262474984</v>
       </c>
       <c r="E28" t="n">
-        <v>328.2681326776725</v>
+        <v>371.8712262474984</v>
       </c>
       <c r="F28" t="n">
-        <v>328.2681326776725</v>
+        <v>207.2401003580896</v>
       </c>
       <c r="G28" t="n">
-        <v>161.7641234952225</v>
+        <v>40.73609117563968</v>
       </c>
       <c r="H28" t="n">
-        <v>40.73609117563967</v>
+        <v>40.73609117563968</v>
       </c>
       <c r="I28" t="n">
-        <v>40.73609117563967</v>
+        <v>40.73609117563968</v>
       </c>
       <c r="J28" t="n">
-        <v>41.5363696390619</v>
+        <v>106.5377332703983</v>
       </c>
       <c r="K28" t="n">
-        <v>281.0790541277168</v>
+        <v>139.8002241733391</v>
       </c>
       <c r="L28" t="n">
-        <v>649.7345499130969</v>
+        <v>508.4557199587192</v>
       </c>
       <c r="M28" t="n">
-        <v>860.1288771476941</v>
+        <v>912.3902554072974</v>
       </c>
       <c r="N28" t="n">
-        <v>1252.91153086034</v>
+        <v>1305.172909119943</v>
       </c>
       <c r="O28" t="n">
-        <v>1615.870424989964</v>
+        <v>1668.131803249567</v>
       </c>
       <c r="P28" t="n">
-        <v>1910.020959638669</v>
+        <v>1962.282337898273</v>
       </c>
       <c r="Q28" t="n">
         <v>2036.804558781984</v>
@@ -6411,25 +6411,25 @@
         <v>2036.804558781984</v>
       </c>
       <c r="S28" t="n">
-        <v>1863.420191452591</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="T28" t="n">
-        <v>1627.06053869514</v>
+        <v>1800.444906024532</v>
       </c>
       <c r="U28" t="n">
-        <v>1344.303102980828</v>
+        <v>1517.687470310221</v>
       </c>
       <c r="V28" t="n">
-        <v>1070.41735792035</v>
+        <v>1243.801725249743</v>
       </c>
       <c r="W28" t="n">
-        <v>791.3476934292244</v>
+        <v>964.7320607586169</v>
       </c>
       <c r="X28" t="n">
-        <v>553.0038312889078</v>
+        <v>726.3881986183003</v>
       </c>
       <c r="Y28" t="n">
-        <v>328.2681326776725</v>
+        <v>501.652500007065</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1276.745824453975</v>
+        <v>1715.498749263684</v>
       </c>
       <c r="C29" t="n">
-        <v>866.6212337672449</v>
+        <v>1305.374158576954</v>
       </c>
       <c r="D29" t="n">
-        <v>462.1573038603054</v>
+        <v>1305.374158576954</v>
       </c>
       <c r="E29" t="n">
-        <v>47.81708837720214</v>
+        <v>891.0339430938509</v>
       </c>
       <c r="F29" t="n">
-        <v>47.81708837720214</v>
+        <v>470.0035310475384</v>
       </c>
       <c r="G29" t="n">
-        <v>47.81708837720214</v>
+        <v>62.93917733461108</v>
       </c>
       <c r="H29" t="n">
-        <v>47.81708837720214</v>
+        <v>62.93917733461108</v>
       </c>
       <c r="I29" t="n">
-        <v>40.73609117563967</v>
+        <v>40.73609117563968</v>
       </c>
       <c r="J29" t="n">
-        <v>433.3352170968269</v>
+        <v>106.5593902090978</v>
       </c>
       <c r="K29" t="n">
-        <v>552.5363793075685</v>
+        <v>225.7605524198394</v>
       </c>
       <c r="L29" t="n">
-        <v>715.3611750702407</v>
+        <v>388.5853481825117</v>
       </c>
       <c r="M29" t="n">
-        <v>909.3612555004715</v>
+        <v>582.5854286127425</v>
       </c>
       <c r="N29" t="n">
-        <v>1108.36905244633</v>
+        <v>781.5932255586015</v>
       </c>
       <c r="O29" t="n">
-        <v>1290.885691100357</v>
+        <v>1254.73418409389</v>
       </c>
       <c r="P29" t="n">
-        <v>1432.686514172018</v>
+        <v>1396.535007165551</v>
       </c>
       <c r="Q29" t="n">
         <v>1893.806030630993</v>
@@ -6490,25 +6490,25 @@
         <v>2036.804558781984</v>
       </c>
       <c r="S29" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="T29" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="U29" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="V29" t="n">
-        <v>1686.967004118464</v>
+        <v>1715.498749263684</v>
       </c>
       <c r="W29" t="n">
-        <v>1686.967004118464</v>
+        <v>1715.498749263684</v>
       </c>
       <c r="X29" t="n">
-        <v>1686.967004118464</v>
+        <v>1715.498749263684</v>
       </c>
       <c r="Y29" t="n">
-        <v>1686.967004118464</v>
+        <v>1715.498749263684</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>317.9447728135655</v>
       </c>
       <c r="F30" t="n">
-        <v>208.98489299607</v>
+        <v>208.9848929960701</v>
       </c>
       <c r="G30" t="n">
-        <v>102.8850615586101</v>
+        <v>102.8850615586102</v>
       </c>
       <c r="H30" t="n">
-        <v>40.73609117563967</v>
+        <v>40.73609117563968</v>
       </c>
       <c r="I30" t="n">
-        <v>40.73609117563967</v>
+        <v>40.73609117563968</v>
       </c>
       <c r="J30" t="n">
-        <v>315.9871731022767</v>
+        <v>72.31876912764346</v>
       </c>
       <c r="K30" t="n">
-        <v>820.0963014008177</v>
+        <v>157.9513001761445</v>
       </c>
       <c r="L30" t="n">
-        <v>954.0004362740642</v>
+        <v>662.0604284746855</v>
       </c>
       <c r="M30" t="n">
-        <v>1118.099777430897</v>
+        <v>826.1597696315187</v>
       </c>
       <c r="N30" t="n">
-        <v>1622.208905729438</v>
+        <v>1000.437833246822</v>
       </c>
       <c r="O30" t="n">
-        <v>1772.640268898581</v>
+        <v>1393.703941958462</v>
       </c>
       <c r="P30" t="n">
-        <v>1885.544808276537</v>
+        <v>1897.813070257003</v>
       </c>
       <c r="Q30" t="n">
         <v>1953.069490276006</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>837.445011897863</v>
+        <v>863.3700584945525</v>
       </c>
       <c r="C31" t="n">
-        <v>666.3516394595795</v>
+        <v>692.276686056269</v>
       </c>
       <c r="D31" t="n">
-        <v>506.8569947824895</v>
+        <v>532.782041379179</v>
       </c>
       <c r="E31" t="n">
-        <v>345.946179650809</v>
+        <v>371.8712262474984</v>
       </c>
       <c r="F31" t="n">
-        <v>181.3150537614002</v>
+        <v>207.2401003580896</v>
       </c>
       <c r="G31" t="n">
-        <v>134.6363979916958</v>
+        <v>40.73609117563968</v>
       </c>
       <c r="H31" t="n">
-        <v>134.6363979916958</v>
+        <v>40.73609117563968</v>
       </c>
       <c r="I31" t="n">
-        <v>40.73609117563967</v>
+        <v>40.73609117563968</v>
       </c>
       <c r="J31" t="n">
         <v>106.5377332703983</v>
@@ -6630,43 +6630,43 @@
         <v>714.7359135444333</v>
       </c>
       <c r="M31" t="n">
-        <v>986.4028373535311</v>
+        <v>860.1288771476943</v>
       </c>
       <c r="N31" t="n">
-        <v>1379.185491066177</v>
+        <v>1252.91153086034</v>
       </c>
       <c r="O31" t="n">
-        <v>1742.144385195801</v>
+        <v>1615.870424989964</v>
       </c>
       <c r="P31" t="n">
-        <v>2036.294919844506</v>
+        <v>1910.02095963867</v>
       </c>
       <c r="Q31" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="R31" t="n">
-        <v>1985.091884437972</v>
+        <v>1985.091884437973</v>
       </c>
       <c r="S31" t="n">
-        <v>1811.70751710858</v>
+        <v>1985.091884437973</v>
       </c>
       <c r="T31" t="n">
-        <v>1811.70751710858</v>
+        <v>1748.732231680521</v>
       </c>
       <c r="U31" t="n">
-        <v>1528.950081394268</v>
+        <v>1465.974795966209</v>
       </c>
       <c r="V31" t="n">
-        <v>1528.950081394268</v>
+        <v>1192.089050905731</v>
       </c>
       <c r="W31" t="n">
-        <v>1249.880416903143</v>
+        <v>1192.089050905731</v>
       </c>
       <c r="X31" t="n">
-        <v>1249.880416903143</v>
+        <v>1051.069764888597</v>
       </c>
       <c r="Y31" t="n">
-        <v>1025.144718291907</v>
+        <v>1051.069764888597</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1626.583379117494</v>
+        <v>1215.11699805716</v>
       </c>
       <c r="C32" t="n">
-        <v>1216.458788430764</v>
+        <v>1215.11699805716</v>
       </c>
       <c r="D32" t="n">
-        <v>811.9948585238249</v>
+        <v>1215.11699805716</v>
       </c>
       <c r="E32" t="n">
-        <v>397.6546430407216</v>
+        <v>1184.901713316118</v>
       </c>
       <c r="F32" t="n">
-        <v>397.6546430407216</v>
+        <v>763.8713012698054</v>
       </c>
       <c r="G32" t="n">
-        <v>40.73609117563968</v>
+        <v>356.806947556878</v>
       </c>
       <c r="H32" t="n">
-        <v>40.73609117563968</v>
+        <v>62.93917733461108</v>
       </c>
       <c r="I32" t="n">
         <v>40.73609117563968</v>
@@ -6703,22 +6703,22 @@
         <v>433.3352170968269</v>
       </c>
       <c r="K32" t="n">
-        <v>585.3950129156849</v>
+        <v>552.5363793075685</v>
       </c>
       <c r="L32" t="n">
-        <v>1089.504141214226</v>
+        <v>715.3611750702407</v>
       </c>
       <c r="M32" t="n">
-        <v>1283.504221644457</v>
+        <v>909.3612555004715</v>
       </c>
       <c r="N32" t="n">
-        <v>1482.512018590316</v>
+        <v>1108.36905244633</v>
       </c>
       <c r="O32" t="n">
-        <v>1665.028657244343</v>
+        <v>1290.885691100357</v>
       </c>
       <c r="P32" t="n">
-        <v>1806.829480316004</v>
+        <v>1432.686514172018</v>
       </c>
       <c r="Q32" t="n">
         <v>1893.806030630993</v>
@@ -6730,22 +6730,22 @@
         <v>2036.804558781984</v>
       </c>
       <c r="T32" t="n">
-        <v>2036.804558781984</v>
+        <v>1821.88193002963</v>
       </c>
       <c r="U32" t="n">
-        <v>2036.804558781984</v>
+        <v>1564.95455272068</v>
       </c>
       <c r="V32" t="n">
-        <v>2036.804558781984</v>
+        <v>1215.11699805716</v>
       </c>
       <c r="W32" t="n">
-        <v>2036.804558781984</v>
+        <v>1215.11699805716</v>
       </c>
       <c r="X32" t="n">
-        <v>2036.804558781984</v>
+        <v>1215.11699805716</v>
       </c>
       <c r="Y32" t="n">
-        <v>2036.804558781984</v>
+        <v>1215.11699805716</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>689.3298178528997</v>
+        <v>689.3298178528994</v>
       </c>
       <c r="C33" t="n">
-        <v>555.3347466018454</v>
+        <v>555.334746601845</v>
       </c>
       <c r="D33" t="n">
-        <v>438.4375888212378</v>
+        <v>438.4375888212375</v>
       </c>
       <c r="E33" t="n">
-        <v>317.9447728135658</v>
+        <v>317.9447728135655</v>
       </c>
       <c r="F33" t="n">
-        <v>208.9848929960704</v>
+        <v>208.9848929960701</v>
       </c>
       <c r="G33" t="n">
         <v>102.8850615586102</v>
@@ -6782,31 +6782,31 @@
         <v>325.6937265558564</v>
       </c>
       <c r="K33" t="n">
-        <v>411.3262576043575</v>
+        <v>756.2254710607473</v>
       </c>
       <c r="L33" t="n">
-        <v>545.230392477604</v>
+        <v>890.1296059339938</v>
       </c>
       <c r="M33" t="n">
-        <v>709.3297336344372</v>
+        <v>1054.228947090827</v>
       </c>
       <c r="N33" t="n">
-        <v>883.6077972497401</v>
+        <v>1228.50701070613</v>
       </c>
       <c r="O33" t="n">
-        <v>1071.468853460665</v>
+        <v>1378.938373875273</v>
       </c>
       <c r="P33" t="n">
-        <v>1575.577981759206</v>
+        <v>1491.842913253229</v>
       </c>
       <c r="Q33" t="n">
-        <v>2036.804558781984</v>
+        <v>1953.069490276006</v>
       </c>
       <c r="R33" t="n">
-        <v>2036.804558781984</v>
+        <v>2036.804558781983</v>
       </c>
       <c r="S33" t="n">
-        <v>1945.351132607402</v>
+        <v>1945.351132607401</v>
       </c>
       <c r="T33" t="n">
         <v>1789.597726983432</v>
@@ -6818,13 +6818,13 @@
         <v>1378.593960249435</v>
       </c>
       <c r="W33" t="n">
-        <v>1165.360791985764</v>
+        <v>1165.360791985763</v>
       </c>
       <c r="X33" t="n">
-        <v>989.0348101246564</v>
+        <v>989.034810124656</v>
       </c>
       <c r="Y33" t="n">
-        <v>829.6328504884864</v>
+        <v>829.632850488486</v>
       </c>
     </row>
     <row r="34">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>833.0698820847839</v>
+        <v>313.9527936130206</v>
       </c>
       <c r="C34" t="n">
-        <v>661.9765096465004</v>
+        <v>142.8594211747371</v>
       </c>
       <c r="D34" t="n">
-        <v>661.9765096465004</v>
+        <v>142.8594211747371</v>
       </c>
       <c r="E34" t="n">
-        <v>608.7429747091662</v>
+        <v>142.8594211747371</v>
       </c>
       <c r="F34" t="n">
-        <v>444.1118488197575</v>
+        <v>40.73609117563968</v>
       </c>
       <c r="G34" t="n">
-        <v>277.6078396373075</v>
+        <v>40.73609117563968</v>
       </c>
       <c r="H34" t="n">
-        <v>134.6363979916959</v>
+        <v>40.73609117563968</v>
       </c>
       <c r="I34" t="n">
         <v>40.73609117563968</v>
       </c>
       <c r="J34" t="n">
-        <v>106.5377332703983</v>
+        <v>41.5363696390619</v>
       </c>
       <c r="K34" t="n">
-        <v>346.0804177590531</v>
+        <v>281.0790541277168</v>
       </c>
       <c r="L34" t="n">
-        <v>714.7359135444333</v>
+        <v>649.7345499130969</v>
       </c>
       <c r="M34" t="n">
-        <v>860.1288771476943</v>
+        <v>1053.669085361675</v>
       </c>
       <c r="N34" t="n">
-        <v>1252.91153086034</v>
+        <v>1446.451739074321</v>
       </c>
       <c r="O34" t="n">
-        <v>1615.870424989964</v>
+        <v>1809.410633203945</v>
       </c>
       <c r="P34" t="n">
-        <v>1910.02095963867</v>
+        <v>2036.294919844507</v>
       </c>
       <c r="Q34" t="n">
         <v>2036.804558781984</v>
@@ -6888,22 +6888,22 @@
         <v>2036.804558781984</v>
       </c>
       <c r="T34" t="n">
-        <v>2036.804558781984</v>
+        <v>1800.444906024532</v>
       </c>
       <c r="U34" t="n">
-        <v>2036.804558781984</v>
+        <v>1517.687470310221</v>
       </c>
       <c r="V34" t="n">
-        <v>1762.918813721506</v>
+        <v>1243.801725249743</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.84914923038</v>
+        <v>964.7320607586169</v>
       </c>
       <c r="X34" t="n">
-        <v>1245.505287090064</v>
+        <v>726.3881986183003</v>
       </c>
       <c r="Y34" t="n">
-        <v>1020.769588478828</v>
+        <v>501.652500007065</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1626.583379117494</v>
+        <v>1071.400977535063</v>
       </c>
       <c r="C35" t="n">
-        <v>1216.458788430764</v>
+        <v>1071.400977535063</v>
       </c>
       <c r="D35" t="n">
-        <v>811.9948585238249</v>
+        <v>666.9370476281238</v>
       </c>
       <c r="E35" t="n">
-        <v>397.6546430407216</v>
+        <v>666.9370476281238</v>
       </c>
       <c r="F35" t="n">
-        <v>397.6546430407216</v>
+        <v>245.9066355818113</v>
       </c>
       <c r="G35" t="n">
-        <v>40.73609117563967</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="H35" t="n">
-        <v>40.73609117563967</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="I35" t="n">
         <v>40.73609117563967</v>
       </c>
       <c r="J35" t="n">
-        <v>433.3352170968269</v>
+        <v>397.1837100903592</v>
       </c>
       <c r="K35" t="n">
-        <v>552.5363793075685</v>
+        <v>516.3848723011008</v>
       </c>
       <c r="L35" t="n">
-        <v>715.3611750702407</v>
+        <v>679.2096680637731</v>
       </c>
       <c r="M35" t="n">
-        <v>909.3612555004715</v>
+        <v>873.2097484940039</v>
       </c>
       <c r="N35" t="n">
-        <v>1108.36905244633</v>
+        <v>1072.217545439863</v>
       </c>
       <c r="O35" t="n">
-        <v>1290.885691100357</v>
+        <v>1254.73418409389</v>
       </c>
       <c r="P35" t="n">
-        <v>1432.686514172018</v>
+        <v>1396.535007165551</v>
       </c>
       <c r="Q35" t="n">
         <v>1893.806030630993</v>
@@ -6967,22 +6967,22 @@
         <v>2036.804558781984</v>
       </c>
       <c r="T35" t="n">
-        <v>2036.804558781984</v>
+        <v>1821.88193002963</v>
       </c>
       <c r="U35" t="n">
-        <v>2036.804558781984</v>
+        <v>1821.88193002963</v>
       </c>
       <c r="V35" t="n">
-        <v>2036.804558781984</v>
+        <v>1472.044375366111</v>
       </c>
       <c r="W35" t="n">
-        <v>2036.804558781984</v>
+        <v>1472.044375366111</v>
       </c>
       <c r="X35" t="n">
-        <v>2036.804558781984</v>
+        <v>1071.400977535063</v>
       </c>
       <c r="Y35" t="n">
-        <v>2036.804558781984</v>
+        <v>1071.400977535063</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>689.3298178528996</v>
+        <v>689.3298178528993</v>
       </c>
       <c r="C36" t="n">
-        <v>555.3347466018453</v>
+        <v>555.334746601845</v>
       </c>
       <c r="D36" t="n">
-        <v>438.4375888212377</v>
+        <v>438.4375888212373</v>
       </c>
       <c r="E36" t="n">
-        <v>317.9447728135656</v>
+        <v>317.9447728135654</v>
       </c>
       <c r="F36" t="n">
-        <v>208.9848929960702</v>
+        <v>208.9848929960699</v>
       </c>
       <c r="G36" t="n">
         <v>102.8850615586101</v>
@@ -7013,31 +7013,31 @@
         <v>40.73609117563967</v>
       </c>
       <c r="I36" t="n">
-        <v>40.73609117563967</v>
+        <v>50.44264462921938</v>
       </c>
       <c r="J36" t="n">
-        <v>315.9871731022767</v>
+        <v>325.6937265558564</v>
       </c>
       <c r="K36" t="n">
-        <v>820.0963014008177</v>
+        <v>756.2254710607475</v>
       </c>
       <c r="L36" t="n">
-        <v>988.6302425231599</v>
+        <v>890.1296059339941</v>
       </c>
       <c r="M36" t="n">
-        <v>1152.729583679993</v>
+        <v>1054.228947090827</v>
       </c>
       <c r="N36" t="n">
-        <v>1327.007647295296</v>
+        <v>1228.50701070613</v>
       </c>
       <c r="O36" t="n">
-        <v>1477.439010464439</v>
+        <v>1378.938373875273</v>
       </c>
       <c r="P36" t="n">
-        <v>1981.54813876298</v>
+        <v>1491.842913253229</v>
       </c>
       <c r="Q36" t="n">
-        <v>2036.804558781984</v>
+        <v>1953.069490276007</v>
       </c>
       <c r="R36" t="n">
         <v>2036.804558781984</v>
@@ -7052,16 +7052,16 @@
         <v>1592.305487256401</v>
       </c>
       <c r="V36" t="n">
-        <v>1378.593960249435</v>
+        <v>1378.593960249434</v>
       </c>
       <c r="W36" t="n">
         <v>1165.360791985763</v>
       </c>
       <c r="X36" t="n">
-        <v>989.0348101246562</v>
+        <v>989.0348101246559</v>
       </c>
       <c r="Y36" t="n">
-        <v>829.6328504884863</v>
+        <v>829.6328504884859</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>796.359550178928</v>
+        <v>863.3700584945525</v>
       </c>
       <c r="C37" t="n">
-        <v>625.2661777406445</v>
+        <v>692.276686056269</v>
       </c>
       <c r="D37" t="n">
-        <v>465.7715330635546</v>
+        <v>532.782041379179</v>
       </c>
       <c r="E37" t="n">
-        <v>465.7715330635546</v>
+        <v>371.8712262474984</v>
       </c>
       <c r="F37" t="n">
-        <v>301.1404071741458</v>
+        <v>207.2401003580896</v>
       </c>
       <c r="G37" t="n">
-        <v>134.6363979916958</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="H37" t="n">
-        <v>134.6363979916958</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="I37" t="n">
         <v>40.73609117563967</v>
@@ -7101,19 +7101,19 @@
         <v>346.0804177590531</v>
       </c>
       <c r="L37" t="n">
-        <v>582.4683019049528</v>
+        <v>714.7359135444333</v>
       </c>
       <c r="M37" t="n">
-        <v>986.4028373535311</v>
+        <v>1118.670448993012</v>
       </c>
       <c r="N37" t="n">
-        <v>1379.185491066177</v>
+        <v>1511.453102705658</v>
       </c>
       <c r="O37" t="n">
-        <v>1742.144385195801</v>
+        <v>1615.870424989964</v>
       </c>
       <c r="P37" t="n">
-        <v>2036.294919844506</v>
+        <v>1910.020959638669</v>
       </c>
       <c r="Q37" t="n">
         <v>2036.804558781984</v>
@@ -7125,22 +7125,22 @@
         <v>2036.804558781984</v>
       </c>
       <c r="T37" t="n">
-        <v>2036.804558781984</v>
+        <v>1800.444906024532</v>
       </c>
       <c r="U37" t="n">
-        <v>2000.094226876128</v>
+        <v>1517.68747031022</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.20848181565</v>
+        <v>1243.801725249742</v>
       </c>
       <c r="W37" t="n">
-        <v>1447.138817324524</v>
+        <v>964.7320607586166</v>
       </c>
       <c r="X37" t="n">
-        <v>1208.794955184208</v>
+        <v>964.7320607586166</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.0592565729723</v>
+        <v>964.7320607586166</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>235.121473228283</v>
+        <v>656.725713877998</v>
       </c>
       <c r="C38" t="n">
-        <v>40.73609117563968</v>
+        <v>656.725713877998</v>
       </c>
       <c r="D38" t="n">
-        <v>40.73609117563968</v>
+        <v>656.725713877998</v>
       </c>
       <c r="E38" t="n">
-        <v>40.73609117563968</v>
+        <v>656.725713877998</v>
       </c>
       <c r="F38" t="n">
-        <v>40.73609117563968</v>
+        <v>235.6953018316856</v>
       </c>
       <c r="G38" t="n">
-        <v>40.73609117563968</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="H38" t="n">
-        <v>40.73609117563968</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="I38" t="n">
-        <v>40.73609117563968</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="J38" t="n">
         <v>433.3352170968269</v>
       </c>
       <c r="K38" t="n">
-        <v>552.5363793075685</v>
+        <v>937.4443453953679</v>
       </c>
       <c r="L38" t="n">
-        <v>715.3611750702407</v>
+        <v>1216.499808290367</v>
       </c>
       <c r="M38" t="n">
-        <v>909.3612555004715</v>
+        <v>1410.499888720597</v>
       </c>
       <c r="N38" t="n">
-        <v>1108.36905244633</v>
+        <v>1609.507685666456</v>
       </c>
       <c r="O38" t="n">
-        <v>1290.885691100357</v>
+        <v>1792.024324320483</v>
       </c>
       <c r="P38" t="n">
-        <v>1432.686514172018</v>
+        <v>1933.825147392144</v>
       </c>
       <c r="Q38" t="n">
-        <v>1893.806030630993</v>
+        <v>2020.801697707134</v>
       </c>
       <c r="R38" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="S38" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="T38" t="n">
-        <v>2036.804558781984</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="U38" t="n">
-        <v>1779.877181473033</v>
+        <v>1467.590291373535</v>
       </c>
       <c r="V38" t="n">
-        <v>1430.039626809514</v>
+        <v>1467.590291373535</v>
       </c>
       <c r="W38" t="n">
-        <v>1046.279325944682</v>
+        <v>1467.590291373535</v>
       </c>
       <c r="X38" t="n">
-        <v>1046.279325944682</v>
+        <v>1066.946893542487</v>
       </c>
       <c r="Y38" t="n">
-        <v>645.3426528927724</v>
+        <v>1066.946893542487</v>
       </c>
     </row>
     <row r="39">
@@ -7229,58 +7229,58 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>689.3298178528997</v>
+        <v>689.3298178528993</v>
       </c>
       <c r="C39" t="n">
-        <v>555.3347466018454</v>
+        <v>555.334746601845</v>
       </c>
       <c r="D39" t="n">
-        <v>438.4375888212378</v>
+        <v>438.4375888212376</v>
       </c>
       <c r="E39" t="n">
-        <v>317.9447728135658</v>
+        <v>317.9447728135656</v>
       </c>
       <c r="F39" t="n">
-        <v>208.9848929960704</v>
+        <v>208.9848929960701</v>
       </c>
       <c r="G39" t="n">
         <v>102.8850615586101</v>
       </c>
       <c r="H39" t="n">
-        <v>40.73609117563968</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="I39" t="n">
-        <v>40.73609117563968</v>
+        <v>50.44264462921938</v>
       </c>
       <c r="J39" t="n">
-        <v>315.9871731022767</v>
+        <v>325.6937265558564</v>
       </c>
       <c r="K39" t="n">
-        <v>820.0963014008178</v>
+        <v>411.3262576043575</v>
       </c>
       <c r="L39" t="n">
-        <v>1324.205429699359</v>
+        <v>545.230392477604</v>
       </c>
       <c r="M39" t="n">
-        <v>1543.934172600578</v>
+        <v>1049.339520776145</v>
       </c>
       <c r="N39" t="n">
-        <v>1718.212236215881</v>
+        <v>1223.617584391448</v>
       </c>
       <c r="O39" t="n">
-        <v>1868.643599385024</v>
+        <v>1374.048947560591</v>
       </c>
       <c r="P39" t="n">
-        <v>1981.54813876298</v>
+        <v>1491.842913253229</v>
       </c>
       <c r="Q39" t="n">
-        <v>2036.804558781984</v>
+        <v>1953.069490276007</v>
       </c>
       <c r="R39" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="S39" t="n">
-        <v>1945.351132607402</v>
+        <v>1945.351132607401</v>
       </c>
       <c r="T39" t="n">
         <v>1789.597726983432</v>
@@ -7292,13 +7292,13 @@
         <v>1378.593960249435</v>
       </c>
       <c r="W39" t="n">
-        <v>1165.360791985764</v>
+        <v>1165.360791985763</v>
       </c>
       <c r="X39" t="n">
-        <v>989.0348101246564</v>
+        <v>989.0348101246559</v>
       </c>
       <c r="Y39" t="n">
-        <v>829.6328504884864</v>
+        <v>829.6328504884859</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1100.24180695622</v>
+        <v>553.0038312889078</v>
       </c>
       <c r="C40" t="n">
-        <v>929.1484345179367</v>
+        <v>381.9104588506243</v>
       </c>
       <c r="D40" t="n">
-        <v>769.6537898408467</v>
+        <v>381.9104588506243</v>
       </c>
       <c r="E40" t="n">
-        <v>608.7429747091662</v>
+        <v>220.9996437189438</v>
       </c>
       <c r="F40" t="n">
-        <v>444.1118488197575</v>
+        <v>56.36851782953505</v>
       </c>
       <c r="G40" t="n">
-        <v>277.6078396373075</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="H40" t="n">
-        <v>134.6363979916959</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="I40" t="n">
-        <v>40.73609117563968</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="J40" t="n">
         <v>106.5377332703983</v>
       </c>
       <c r="K40" t="n">
-        <v>139.8002241733391</v>
+        <v>346.0804177590531</v>
       </c>
       <c r="L40" t="n">
-        <v>508.4557199587192</v>
+        <v>714.7359135444333</v>
       </c>
       <c r="M40" t="n">
-        <v>912.3902554072974</v>
+        <v>860.1288771476941</v>
       </c>
       <c r="N40" t="n">
-        <v>1305.172909119943</v>
+        <v>1252.91153086034</v>
       </c>
       <c r="O40" t="n">
-        <v>1668.131803249567</v>
+        <v>1615.870424989964</v>
       </c>
       <c r="P40" t="n">
-        <v>1910.02095963867</v>
+        <v>1910.020959638669</v>
       </c>
       <c r="Q40" t="n">
         <v>2036.804558781984</v>
@@ -7359,25 +7359,25 @@
         <v>2036.804558781984</v>
       </c>
       <c r="S40" t="n">
-        <v>2036.804558781984</v>
+        <v>1863.420191452591</v>
       </c>
       <c r="T40" t="n">
-        <v>1800.444906024532</v>
+        <v>1627.06053869514</v>
       </c>
       <c r="U40" t="n">
-        <v>1800.444906024532</v>
+        <v>1344.303102980828</v>
       </c>
       <c r="V40" t="n">
-        <v>1526.559160964054</v>
+        <v>1070.41735792035</v>
       </c>
       <c r="W40" t="n">
-        <v>1526.559160964054</v>
+        <v>791.3476934292244</v>
       </c>
       <c r="X40" t="n">
-        <v>1288.215298823738</v>
+        <v>553.0038312889078</v>
       </c>
       <c r="Y40" t="n">
-        <v>1287.941513350265</v>
+        <v>553.0038312889078</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>470.0035310475384</v>
+        <v>852.2643747955065</v>
       </c>
       <c r="C41" t="n">
-        <v>470.0035310475384</v>
+        <v>852.2643747955065</v>
       </c>
       <c r="D41" t="n">
-        <v>470.0035310475384</v>
+        <v>447.800444888567</v>
       </c>
       <c r="E41" t="n">
-        <v>470.0035310475384</v>
+        <v>447.800444888567</v>
       </c>
       <c r="F41" t="n">
-        <v>470.0035310475384</v>
+        <v>447.800444888567</v>
       </c>
       <c r="G41" t="n">
-        <v>62.93917733461107</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="H41" t="n">
-        <v>62.93917733461107</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="I41" t="n">
         <v>40.73609117563967</v>
       </c>
       <c r="J41" t="n">
-        <v>433.3352170968269</v>
+        <v>106.5593902090977</v>
       </c>
       <c r="K41" t="n">
-        <v>552.5363793075685</v>
+        <v>225.7605524198393</v>
       </c>
       <c r="L41" t="n">
-        <v>715.3611750702407</v>
+        <v>388.5853481825116</v>
       </c>
       <c r="M41" t="n">
-        <v>909.3612555004715</v>
+        <v>582.5854286127425</v>
       </c>
       <c r="N41" t="n">
-        <v>1108.36905244633</v>
+        <v>781.5932255586015</v>
       </c>
       <c r="O41" t="n">
-        <v>1290.885691100357</v>
+        <v>964.1098642126285</v>
       </c>
       <c r="P41" t="n">
-        <v>1432.686514172018</v>
+        <v>1396.535007165551</v>
       </c>
       <c r="Q41" t="n">
-        <v>1929.957537637461</v>
+        <v>1893.806030630993</v>
       </c>
       <c r="R41" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="S41" t="n">
-        <v>1939.440297434839</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="T41" t="n">
-        <v>1939.440297434839</v>
+        <v>1821.88193002963</v>
       </c>
       <c r="U41" t="n">
-        <v>1939.440297434839</v>
+        <v>1821.88193002963</v>
       </c>
       <c r="V41" t="n">
-        <v>1589.60274277132</v>
+        <v>1821.88193002963</v>
       </c>
       <c r="W41" t="n">
-        <v>1205.842441906488</v>
+        <v>1821.88193002963</v>
       </c>
       <c r="X41" t="n">
-        <v>805.199044075441</v>
+        <v>1421.238532198583</v>
       </c>
       <c r="Y41" t="n">
-        <v>470.0035310475384</v>
+        <v>1020.301859146673</v>
       </c>
     </row>
     <row r="42">
@@ -7466,58 +7466,58 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>689.3298178528994</v>
+        <v>689.3298178528997</v>
       </c>
       <c r="C42" t="n">
-        <v>555.334746601845</v>
+        <v>555.3347466018454</v>
       </c>
       <c r="D42" t="n">
-        <v>438.4375888212375</v>
+        <v>438.4375888212378</v>
       </c>
       <c r="E42" t="n">
-        <v>317.9447728135655</v>
+        <v>317.9447728135658</v>
       </c>
       <c r="F42" t="n">
-        <v>208.98489299607</v>
+        <v>208.9848929960704</v>
       </c>
       <c r="G42" t="n">
-        <v>102.8850615586101</v>
+        <v>102.8850615586105</v>
       </c>
       <c r="H42" t="n">
         <v>40.73609117563967</v>
       </c>
       <c r="I42" t="n">
-        <v>40.73609117563967</v>
+        <v>50.44264462921938</v>
       </c>
       <c r="J42" t="n">
-        <v>315.9871731022767</v>
+        <v>325.6937265558564</v>
       </c>
       <c r="K42" t="n">
-        <v>820.0963014008177</v>
+        <v>411.3262576043575</v>
       </c>
       <c r="L42" t="n">
-        <v>1296.099762937768</v>
+        <v>545.230392477604</v>
       </c>
       <c r="M42" t="n">
-        <v>1460.199104094601</v>
+        <v>709.3297336344372</v>
       </c>
       <c r="N42" t="n">
-        <v>1634.477167709904</v>
+        <v>883.6077972497401</v>
       </c>
       <c r="O42" t="n">
-        <v>1784.908530879046</v>
+        <v>1034.039160418883</v>
       </c>
       <c r="P42" t="n">
-        <v>1897.813070257003</v>
+        <v>1491.842913253229</v>
       </c>
       <c r="Q42" t="n">
-        <v>1953.069490276006</v>
+        <v>1953.069490276007</v>
       </c>
       <c r="R42" t="n">
-        <v>2036.804558781983</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="S42" t="n">
-        <v>1945.351132607401</v>
+        <v>1945.351132607402</v>
       </c>
       <c r="T42" t="n">
         <v>1789.597726983432</v>
@@ -7529,13 +7529,13 @@
         <v>1378.593960249435</v>
       </c>
       <c r="W42" t="n">
-        <v>1165.360791985763</v>
+        <v>1165.360791985764</v>
       </c>
       <c r="X42" t="n">
-        <v>989.034810124656</v>
+        <v>989.0348101246564</v>
       </c>
       <c r="Y42" t="n">
-        <v>829.632850488486</v>
+        <v>829.6328504884864</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1100.24180695622</v>
+        <v>525.7726768738189</v>
       </c>
       <c r="C43" t="n">
-        <v>929.1484345179367</v>
+        <v>525.7726768738189</v>
       </c>
       <c r="D43" t="n">
-        <v>769.6537898408467</v>
+        <v>366.2780321967289</v>
       </c>
       <c r="E43" t="n">
-        <v>608.7429747091662</v>
+        <v>205.3672170650484</v>
       </c>
       <c r="F43" t="n">
-        <v>444.1118488197575</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="G43" t="n">
-        <v>277.6078396373075</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="H43" t="n">
-        <v>134.6363979916958</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="I43" t="n">
         <v>40.73609117563967</v>
       </c>
       <c r="J43" t="n">
-        <v>106.5377332703983</v>
+        <v>41.5363696390619</v>
       </c>
       <c r="K43" t="n">
-        <v>346.0804177590531</v>
+        <v>213.8128061195727</v>
       </c>
       <c r="L43" t="n">
-        <v>714.7359135444333</v>
+        <v>582.4683019049528</v>
       </c>
       <c r="M43" t="n">
-        <v>1118.670448993012</v>
+        <v>986.4028373535311</v>
       </c>
       <c r="N43" t="n">
-        <v>1252.91153086034</v>
+        <v>1379.185491066177</v>
       </c>
       <c r="O43" t="n">
-        <v>1615.870424989964</v>
+        <v>1742.144385195801</v>
       </c>
       <c r="P43" t="n">
-        <v>1910.020959638669</v>
+        <v>2036.294919844506</v>
       </c>
       <c r="Q43" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="R43" t="n">
-        <v>1985.091884437972</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="S43" t="n">
-        <v>1985.091884437972</v>
+        <v>1863.420191452591</v>
       </c>
       <c r="T43" t="n">
-        <v>1985.091884437972</v>
+        <v>1627.06053869514</v>
       </c>
       <c r="U43" t="n">
-        <v>1985.091884437972</v>
+        <v>1344.303102980828</v>
       </c>
       <c r="V43" t="n">
-        <v>1985.091884437972</v>
+        <v>1217.277746370224</v>
       </c>
       <c r="W43" t="n">
-        <v>1706.022219946847</v>
+        <v>938.2080818790986</v>
       </c>
       <c r="X43" t="n">
-        <v>1512.6772119615</v>
+        <v>938.2080818790986</v>
       </c>
       <c r="Y43" t="n">
-        <v>1287.941513350265</v>
+        <v>713.4723832678633</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>40.73609117563967</v>
+        <v>771.1471630399813</v>
       </c>
       <c r="C44" t="n">
-        <v>40.73609117563967</v>
+        <v>771.1471630399813</v>
       </c>
       <c r="D44" t="n">
-        <v>40.73609117563967</v>
+        <v>771.1471630399813</v>
       </c>
       <c r="E44" t="n">
-        <v>40.73609117563967</v>
+        <v>356.806947556878</v>
       </c>
       <c r="F44" t="n">
-        <v>40.73609117563967</v>
+        <v>356.806947556878</v>
       </c>
       <c r="G44" t="n">
-        <v>40.73609117563967</v>
+        <v>356.806947556878</v>
       </c>
       <c r="H44" t="n">
-        <v>40.73609117563967</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="I44" t="n">
         <v>40.73609117563967</v>
       </c>
       <c r="J44" t="n">
-        <v>433.3352170968269</v>
+        <v>106.5593902090977</v>
       </c>
       <c r="K44" t="n">
-        <v>552.5363793075685</v>
+        <v>225.7605524198393</v>
       </c>
       <c r="L44" t="n">
-        <v>715.3611750702407</v>
+        <v>729.8696807183803</v>
       </c>
       <c r="M44" t="n">
-        <v>909.3612555004715</v>
+        <v>923.8697611486111</v>
       </c>
       <c r="N44" t="n">
-        <v>1108.36905244633</v>
+        <v>1287.915196021942</v>
       </c>
       <c r="O44" t="n">
-        <v>1290.885691100357</v>
+        <v>1792.024324320483</v>
       </c>
       <c r="P44" t="n">
-        <v>1432.686514172018</v>
+        <v>1933.825147392144</v>
       </c>
       <c r="Q44" t="n">
-        <v>1893.806030630993</v>
+        <v>2020.801697707134</v>
       </c>
       <c r="R44" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="S44" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="T44" t="n">
-        <v>1821.88193002963</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="U44" t="n">
-        <v>1564.954552720679</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="V44" t="n">
-        <v>1215.11699805716</v>
+        <v>1374.680114018966</v>
       </c>
       <c r="W44" t="n">
-        <v>831.3566971923285</v>
+        <v>1374.680114018966</v>
       </c>
       <c r="X44" t="n">
-        <v>430.713299361281</v>
+        <v>1172.083836091891</v>
       </c>
       <c r="Y44" t="n">
-        <v>40.73609117563967</v>
+        <v>771.1471630399813</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>689.3298178528994</v>
+        <v>689.3298178528993</v>
       </c>
       <c r="C45" t="n">
-        <v>555.3347466018452</v>
+        <v>555.334746601845</v>
       </c>
       <c r="D45" t="n">
-        <v>438.4375888212376</v>
+        <v>438.4375888212373</v>
       </c>
       <c r="E45" t="n">
-        <v>317.9447728135656</v>
+        <v>317.9447728135654</v>
       </c>
       <c r="F45" t="n">
-        <v>208.9848929960702</v>
+        <v>208.9848929960699</v>
       </c>
       <c r="G45" t="n">
-        <v>102.8850615586101</v>
+        <v>102.8850615586102</v>
       </c>
       <c r="H45" t="n">
         <v>40.73609117563967</v>
@@ -7763,16 +7763,16 @@
         <v>1592.305487256401</v>
       </c>
       <c r="V45" t="n">
-        <v>1378.593960249435</v>
+        <v>1378.593960249434</v>
       </c>
       <c r="W45" t="n">
         <v>1165.360791985763</v>
       </c>
       <c r="X45" t="n">
-        <v>989.034810124656</v>
+        <v>989.0348101246559</v>
       </c>
       <c r="Y45" t="n">
-        <v>829.632850488486</v>
+        <v>829.6328504884859</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>328.2681326776725</v>
+        <v>419.6380907747538</v>
       </c>
       <c r="C46" t="n">
-        <v>328.2681326776725</v>
+        <v>248.5447183364703</v>
       </c>
       <c r="D46" t="n">
-        <v>168.7734880005825</v>
+        <v>248.5447183364703</v>
       </c>
       <c r="E46" t="n">
-        <v>168.7734880005825</v>
+        <v>87.63390320478976</v>
       </c>
       <c r="F46" t="n">
-        <v>168.7734880005825</v>
+        <v>87.63390320478976</v>
       </c>
       <c r="G46" t="n">
         <v>40.73609117563967</v>
@@ -7809,22 +7809,22 @@
         <v>106.5377332703983</v>
       </c>
       <c r="K46" t="n">
-        <v>346.0804177590531</v>
+        <v>213.8128061195727</v>
       </c>
       <c r="L46" t="n">
-        <v>714.7359135444333</v>
+        <v>582.4683019049528</v>
       </c>
       <c r="M46" t="n">
-        <v>1118.670448993012</v>
+        <v>986.4028373535311</v>
       </c>
       <c r="N46" t="n">
-        <v>1511.453102705658</v>
+        <v>1379.185491066177</v>
       </c>
       <c r="O46" t="n">
-        <v>1874.411996835281</v>
+        <v>1742.144385195801</v>
       </c>
       <c r="P46" t="n">
-        <v>1910.020959638669</v>
+        <v>2036.294919844506</v>
       </c>
       <c r="Q46" t="n">
         <v>2036.804558781984</v>
@@ -7845,13 +7845,13 @@
         <v>1070.41735792035</v>
       </c>
       <c r="W46" t="n">
-        <v>791.3476934292244</v>
+        <v>1070.41735792035</v>
       </c>
       <c r="X46" t="n">
-        <v>553.0038312889078</v>
+        <v>832.0734957800335</v>
       </c>
       <c r="Y46" t="n">
-        <v>328.2681326776725</v>
+        <v>607.3377971687981</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>213.1214276537053</v>
       </c>
       <c r="M2" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P2" t="n">
-        <v>468.0383943543247</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8060,16 +8060,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>437.1312460864413</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>78.57506765631931</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>447.9042587502169</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>426.3350130527216</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8306,10 +8306,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>443.3461731439669</v>
+        <v>434.4988566955759</v>
       </c>
       <c r="O6" t="n">
-        <v>439.0569423018259</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P6" t="n">
         <v>444.4124147530206</v>
@@ -8455,16 +8455,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>143.2741981615041</v>
       </c>
       <c r="N8" t="n">
-        <v>142.896264461078</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O8" t="n">
         <v>483.342555376</v>
@@ -8531,25 +8531,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L9" t="n">
-        <v>446.2673035610659</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>439.0569423018259</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>293.5599190719815</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>308.183162982507</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>399.815617857608</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8771,25 +8771,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>422.703633585899</v>
+        <v>422.7036335858988</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>335.7502759698222</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8859,13 +8859,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N13" t="n">
-        <v>74.23508040633145</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O13" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>263.5328115890082</v>
+        <v>2.379708714950134</v>
       </c>
       <c r="Q13" t="n">
         <v>127.5494547533709</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>319.2028554989038</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>388.7959253412115</v>
       </c>
       <c r="L14" t="n">
-        <v>344.73164902613</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>363.2671318139851</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9005,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>422.7036335858988</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>271.3047038082316</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>395.156150424833</v>
+        <v>335.7502759698223</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>4.27742219293367</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>214.8472099745505</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N16" t="n">
         <v>335.3881832803894</v>
@@ -9102,10 +9102,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
-        <v>263.5328115890082</v>
+        <v>2.379708714950134</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>313.2414624932425</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>377.9221880242271</v>
+        <v>64.68072553098452</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.960858985977463</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>422.7036335858988</v>
       </c>
       <c r="L18" t="n">
-        <v>373.9444378033276</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>83.73879805438514</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>395.1561504248331</v>
+        <v>256.3899885726872</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>4.27742219293367</v>
@@ -9330,10 +9330,10 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>348.4508580952379</v>
+        <v>87.29775522117976</v>
       </c>
       <c r="N19" t="n">
-        <v>74.23508040633122</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
         <v>318.2573327462026</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>293.5599190719813</v>
       </c>
       <c r="K20" t="n">
-        <v>377.9221880242272</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9482,7 +9482,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>152.6218274277819</v>
+        <v>348.3830438953432</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1626915992304</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>357.2502678074729</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>4.27742219293367</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>140.4181268460304</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>214.8472099745505</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
         <v>335.3881832803894</v>
@@ -9640,7 +9640,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>377.9221880242272</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>11.9542029465706</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>365.9679850776565</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.76545843403778</v>
+        <v>9.960858985977463</v>
       </c>
       <c r="J24" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>166.4278657991865</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>343.4442294360686</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1626915992304</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>358.1876433434037</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>4.27742219293367</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9804,19 +9804,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>214.8472099745505</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N25" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O25" t="n">
-        <v>318.2573327462026</v>
+        <v>57.10422987214449</v>
       </c>
       <c r="P25" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>140.2326545386324</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>365.9679850776565</v>
       </c>
       <c r="Q26" t="n">
-        <v>377.9221880242271</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>9.960858985977463</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>109.6058290229379</v>
+        <v>348.3830438953437</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1626915992304</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>4.27742219293367</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>152.9556982831357</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N28" t="n">
         <v>335.3881832803894</v>
@@ -10053,7 +10053,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.5494547533709</v>
+        <v>74.76018378407477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>293.5599190719813</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>377.9221880242271</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10190,28 +10190,28 @@
         <v>9.960858985977463</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>422.7036335858988</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>373.9444378033277</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1626915992304</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>245.2876217600983</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>395.1561504248331</v>
       </c>
       <c r="Q30" t="n">
-        <v>12.39218381865169</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10278,7 +10278,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>214.8472099745505</v>
+        <v>87.29775522117998</v>
       </c>
       <c r="N31" t="n">
         <v>335.3881832803894</v>
@@ -10290,7 +10290,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>33.19053899809738</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>344.73164902613</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>377.9221880242274</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10430,7 +10430,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>348.3830438953432</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>37.80777074927522</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>395.1561504248331</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>4.27742219293367</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>208.3638319047618</v>
@@ -10515,7 +10515,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>87.29775522117998</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
         <v>335.3881832803894</v>
@@ -10524,10 +10524,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>263.5328115890082</v>
+        <v>195.5871065302772</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>293.5599190719813</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>377.9221880242271</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>9.960858985977463</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>422.7036335858988</v>
+        <v>348.3830438953435</v>
       </c>
       <c r="L36" t="n">
-        <v>34.97960227181389</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>395.1561504248331</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>4.27742219293367</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>183.5469692884269</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
@@ -10758,13 +10758,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>318.2573327462026</v>
+        <v>57.10422987214449</v>
       </c>
       <c r="P37" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>388.7959253412114</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>117.4047142750773</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>377.9221880242274</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,19 +10898,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>9.960858985977463</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>422.703633585899</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>373.9444378033277</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>56.19131489331932</v>
+        <v>343.4442294360686</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>4.938814459274994</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>4.27742219293367</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,13 +10983,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>348.4508580952379</v>
+        <v>87.29775522117976</v>
       </c>
       <c r="N40" t="n">
         <v>335.3881832803894</v>
@@ -10998,7 +10998,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>210.7435406197122</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
         <v>127.5494547533709</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>293.559919071981</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>91.76177784815488</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>9.960858985977463</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>422.7036335858988</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>345.5548754178821</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>348.3830438953436</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>140.4181268460304</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
@@ -11229,7 +11229,7 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
-        <v>74.23508040633121</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
         <v>318.2573327462026</v>
@@ -11238,7 +11238,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>344.73164902613</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>166.7046847752246</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>324.8408986308222</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>377.9221880242271</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>74.76018378407441</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
@@ -11472,10 +11472,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>2.379708714950127</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22552,16 +22552,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>280.9788520747148</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22609,13 +22609,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0.03603336842519411</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="3">
@@ -22631,7 +22631,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22688,13 +22688,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>89.24414791942223</v>
+        <v>26.80885825784696</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>37.02820933843137</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22716,16 +22716,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22758,22 +22758,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.96618811762767</v>
+        <v>186.17058202366</v>
       </c>
       <c r="C5" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>66.55024492428123</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -22846,7 +22846,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -22865,25 +22865,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>28.21459322389098</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22916,13 +22916,13 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>51.88353852249338</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.106155053831</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22953,16 +22953,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>112.3744564560835</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65.60727716829342</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>190.2484274840876</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -23083,13 +23083,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>33.94550654861482</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23153,7 +23153,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
-        <v>50.70028855130263</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23165,10 +23165,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23196,7 +23196,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -23226,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>271.7427784727661</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -23244,10 +23244,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>137.4342356413305</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>249.875057683214</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>406.4701004890128</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.9937101757981</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>21.98105529738169</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.77340246483</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.3581035358611</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>31.57201416577892</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.8389690906254</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.5417272291555</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>171.6505236560984</v>
       </c>
       <c r="T13" t="n">
-        <v>233.9960562298768</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9298613571687</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>44.54886561341971</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>98.57654303364541</v>
       </c>
       <c r="G14" t="n">
-        <v>320.4032646832074</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>290.9290925200442</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>21.98105529738169</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>96.39061873367314</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.77340246483</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>37.62980052386588</v>
       </c>
       <c r="G16" t="n">
         <v>164.8389690906254</v>
@@ -23703,10 +23703,10 @@
         <v>51.19554760057107</v>
       </c>
       <c r="S16" t="n">
-        <v>171.6505236560984</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>216.0993085115765</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>54.37470312094644</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>402.9937101757981</v>
@@ -23752,7 +23752,7 @@
         <v>290.9290925200442</v>
       </c>
       <c r="I17" t="n">
-        <v>21.98105529738169</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>96.39061873367314</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.77340246483</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3581035358611</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23797,7 +23797,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>213.5757712117356</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>141.5417272291555</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>92.96130374789561</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,16 +23943,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.9960562298768</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9298613571687</v>
       </c>
       <c r="V19" t="n">
-        <v>119.0271888164673</v>
+        <v>194.2023632848395</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>74.27540997022112</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>402.9937101757981</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>290.9290925200442</v>
       </c>
       <c r="I20" t="n">
-        <v>21.98105529738169</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>96.39061873367314</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>212.77340246483</v>
@@ -24028,16 +24028,16 @@
         <v>254.3581035358611</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>43.57793997495986</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.8389690906254</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>141.5417272291555</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>92.96130374789561</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>51.19554760057107</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>64.15080287360624</v>
       </c>
       <c r="T22" t="n">
-        <v>56.33532375016263</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9298613571687</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24211,13 +24211,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>341.2657911790927</v>
       </c>
       <c r="G23" t="n">
         <v>402.9937101757981</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>96.39061873367314</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>212.77340246483</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3581035358611</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>50.59237636581355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24372,7 +24372,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>58.19961028125748</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>51.19554760057107</v>
       </c>
       <c r="S25" t="n">
-        <v>121.7439745575633</v>
+        <v>171.6505236560984</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49643154265948</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>290.9290925200442</v>
       </c>
       <c r="I26" t="n">
-        <v>21.98105529738169</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>165.8524060438104</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,19 +24606,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>29.41623720834815</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>21.72397523276847</v>
+        <v>141.5417272291555</v>
       </c>
       <c r="I28" t="n">
         <v>92.96130374789561</v>
@@ -24651,7 +24651,7 @@
         <v>51.19554760057107</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>171.6505236560984</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.9937101757981</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>290.9290925200442</v>
       </c>
       <c r="I29" t="n">
-        <v>14.97086806783484</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>96.39061873367314</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>212.77340246483</v>
@@ -24739,7 +24739,7 @@
         <v>254.3581035358611</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>124.6370464274406</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>118.6270998786181</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>141.5417272291555</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>92.96130374789561</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>171.6505236560984</v>
       </c>
       <c r="T31" t="n">
-        <v>233.9960562298768</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>96.3513303619504</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>380.2836814346401</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>49.64434382936702</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>290.9290925200442</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>21.98105529738169</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>96.39061873367314</v>
       </c>
       <c r="T32" t="n">
-        <v>212.77340246483</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3581035358611</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -25083,19 +25083,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>106.6005073924029</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>61.88271793140818</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.8389690906254</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>141.5417272291555</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>92.96130374789561</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>171.6505236560984</v>
       </c>
       <c r="T34" t="n">
-        <v>233.9960562298768</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9298613571687</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>49.644343829367</v>
+        <v>221.8559265110699</v>
       </c>
       <c r="H35" t="n">
         <v>290.9290925200442</v>
       </c>
       <c r="I35" t="n">
-        <v>21.98105529738169</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>96.39061873367314</v>
       </c>
       <c r="T35" t="n">
-        <v>212.77340246483</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.3581035358611</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>85.47432708868047</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>141.5417272291555</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>92.96130374789561</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>171.6505236560984</v>
       </c>
       <c r="T37" t="n">
-        <v>233.9960562298768</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>243.5866327703715</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>213.5818165477457</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -25402,16 +25402,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>402.9937101757981</v>
+        <v>231.9651469236943</v>
       </c>
       <c r="H38" t="n">
         <v>290.9290925200442</v>
       </c>
       <c r="I38" t="n">
-        <v>21.98105529738169</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>96.39061873367314</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.77340246483</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>149.362866703269</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>141.5417272291555</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>92.96130374789561</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>51.19554760057107</v>
       </c>
       <c r="S40" t="n">
-        <v>171.6505236560984</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9298613571687</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.2172940063844</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>239.76185836019</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -25648,7 +25648,7 @@
         <v>290.9290925200442</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>21.98105529738169</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>96.39061873367314</v>
       </c>
       <c r="T41" t="n">
-        <v>212.77340246483</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.3581035358611</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>65.08374842376736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.8389690906254</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>141.5417272291555</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>92.96130374789561</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>51.19554760057107</v>
       </c>
       <c r="S43" t="n">
-        <v>171.6505236560984</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.9960562298768</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9298613571687</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>145.3917845653754</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>44.54886561342002</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -25882,10 +25882,10 @@
         <v>402.9937101757981</v>
       </c>
       <c r="H44" t="n">
-        <v>290.9290925200442</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>21.98105529738169</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>96.39061873367314</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3581035358611</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>196.0666487049326</v>
       </c>
       <c r="Y44" t="n">
-        <v>10.84987021760588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>38.08194623393203</v>
+        <v>118.4101351817668</v>
       </c>
       <c r="H46" t="n">
         <v>141.5417272291555</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>477993.4729568275</v>
+        <v>477993.4729568276</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>477993.4729568277</v>
+        <v>477993.4729568276</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>550539.0706519209</v>
+        <v>550539.0706519207</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>550539.0706519209</v>
+        <v>550539.0706519207</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>550539.0706519207</v>
+        <v>550539.0706519209</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>550539.0706519207</v>
+        <v>550539.070651921</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>550539.0706519209</v>
+        <v>550539.0706519207</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>550539.070651921</v>
+        <v>550539.0706519207</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>550539.0706519209</v>
+        <v>550539.0706519207</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>143128.737914064</v>
       </c>
       <c r="E2" t="n">
-        <v>179831.8345026954</v>
+        <v>179831.8345026955</v>
       </c>
       <c r="F2" t="n">
-        <v>179831.8345026954</v>
+        <v>179831.8345026955</v>
       </c>
       <c r="G2" t="n">
         <v>179831.8345026954</v>
@@ -26334,10 +26334,10 @@
         <v>179831.8345026954</v>
       </c>
       <c r="I2" t="n">
+        <v>179831.8345026954</v>
+      </c>
+      <c r="J2" t="n">
         <v>179831.8345026955</v>
-      </c>
-      <c r="J2" t="n">
-        <v>179831.8345026954</v>
       </c>
       <c r="K2" t="n">
         <v>179831.8345026954</v>
@@ -26346,7 +26346,7 @@
         <v>179831.8345026954</v>
       </c>
       <c r="M2" t="n">
-        <v>179831.8345026954</v>
+        <v>179831.8345026955</v>
       </c>
       <c r="N2" t="n">
         <v>179831.8345026954</v>
@@ -26355,7 +26355,7 @@
         <v>179831.8345026954</v>
       </c>
       <c r="P2" t="n">
-        <v>179831.8345026954</v>
+        <v>179831.8345026955</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>29667.3274918033</v>
+        <v>29667.32749180328</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64848.77389029955</v>
+        <v>64848.77389029956</v>
       </c>
       <c r="C4" t="n">
         <v>64848.77389029956</v>
@@ -26426,7 +26426,7 @@
         <v>64848.77389029956</v>
       </c>
       <c r="E4" t="n">
-        <v>31466.43662838234</v>
+        <v>31466.43662838233</v>
       </c>
       <c r="F4" t="n">
         <v>31466.43662838233</v>
@@ -26441,19 +26441,19 @@
         <v>31466.43662838233</v>
       </c>
       <c r="J4" t="n">
-        <v>31466.43662838233</v>
+        <v>31466.43662838234</v>
       </c>
       <c r="K4" t="n">
         <v>31466.43662838233</v>
       </c>
       <c r="L4" t="n">
-        <v>31466.43662838234</v>
+        <v>31466.43662838233</v>
       </c>
       <c r="M4" t="n">
         <v>31466.43662838233</v>
       </c>
       <c r="N4" t="n">
-        <v>31466.43662838234</v>
+        <v>31466.43662838233</v>
       </c>
       <c r="O4" t="n">
         <v>31466.43662838233</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109818.0949932807</v>
+        <v>-110651.7592685271</v>
       </c>
       <c r="C6" t="n">
-        <v>20931.07501495126</v>
+        <v>20097.41073970478</v>
       </c>
       <c r="D6" t="n">
-        <v>20931.07501495123</v>
+        <v>20097.4107397048</v>
       </c>
       <c r="E6" t="n">
-        <v>-256277.4530947375</v>
+        <v>-256907.2112778249</v>
       </c>
       <c r="F6" t="n">
-        <v>108473.1208209131</v>
+        <v>107843.3626378258</v>
       </c>
       <c r="G6" t="n">
-        <v>108473.1208209131</v>
+        <v>107843.3626378258</v>
       </c>
       <c r="H6" t="n">
-        <v>108473.1208209131</v>
+        <v>107843.3626378257</v>
       </c>
       <c r="I6" t="n">
-        <v>108473.1208209132</v>
+        <v>107843.3626378257</v>
       </c>
       <c r="J6" t="n">
-        <v>6391.986915947433</v>
+        <v>5762.228732860075</v>
       </c>
       <c r="K6" t="n">
-        <v>108473.1208209131</v>
+        <v>107843.3626378257</v>
       </c>
       <c r="L6" t="n">
-        <v>108473.1208209131</v>
+        <v>107843.3626378258</v>
       </c>
       <c r="M6" t="n">
-        <v>78805.79332910985</v>
+        <v>78176.03514602256</v>
       </c>
       <c r="N6" t="n">
-        <v>108473.1208209131</v>
+        <v>107843.3626378258</v>
       </c>
       <c r="O6" t="n">
-        <v>108473.1208209131</v>
+        <v>107843.3626378258</v>
       </c>
       <c r="P6" t="n">
-        <v>108473.1208209131</v>
+        <v>107843.3626378258</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="E4" t="n">
-        <v>509.201139695496</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="F4" t="n">
         <v>509.2011396954959</v>
@@ -26813,10 +26813,10 @@
         <v>509.2011396954959</v>
       </c>
       <c r="J4" t="n">
-        <v>509.2011396954959</v>
+        <v>509.201139695496</v>
       </c>
       <c r="K4" t="n">
-        <v>509.2011396954959</v>
+        <v>509.201139695496</v>
       </c>
       <c r="L4" t="n">
         <v>509.201139695496</v>
@@ -26825,7 +26825,7 @@
         <v>509.2011396954959</v>
       </c>
       <c r="N4" t="n">
-        <v>509.201139695496</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="O4" t="n">
         <v>509.2011396954959</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>119.048359945279</v>
+        <v>119.0483599452789</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>117.6360295908604</v>
       </c>
       <c r="M2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P2" t="n">
-        <v>374.3890310734406</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>381.3054633018259</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>21.01078391790188</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>390.1527797502169</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="O5" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M5" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="N5" t="n">
-        <v>333.4227222961023</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35026,10 +35026,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>381.3054633018259</v>
+      </c>
+      <c r="O6" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="O6" t="n">
-        <v>381.3054633018259</v>
       </c>
       <c r="P6" t="n">
         <v>390.1527797502169</v>
@@ -35175,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>49.98397370445868</v>
+      </c>
+      <c r="N8" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>49.98397370445868</v>
       </c>
       <c r="O8" t="n">
         <v>390.1527797502169</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L9" t="n">
+        <v>186.5450011173479</v>
+      </c>
+      <c r="M9" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>381.3054633018259</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>360.0480999138584</v>
+        <v>66.48818084187684</v>
       </c>
       <c r="K11" t="n">
         <v>120.4052143542844</v>
@@ -35421,7 +35421,7 @@
         <v>195.9596772022534</v>
       </c>
       <c r="N11" t="n">
-        <v>201.0179767129889</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="O11" t="n">
         <v>184.3602410646737</v>
@@ -35430,7 +35430,7 @@
         <v>143.2331546178394</v>
       </c>
       <c r="Q11" t="n">
-        <v>502.2939630964062</v>
+        <v>487.6707191858803</v>
       </c>
       <c r="R11" t="n">
         <v>144.4429577282736</v>
@@ -35491,10 +35491,10 @@
         <v>278.031395885492</v>
       </c>
       <c r="K12" t="n">
-        <v>509.201139695496</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="L12" t="n">
-        <v>471.0069778619905</v>
+        <v>135.2567018921682</v>
       </c>
       <c r="M12" t="n">
         <v>165.7569102594273</v>
@@ -35509,7 +35509,7 @@
         <v>114.0449892706629</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.81456567576151</v>
+        <v>391.5648416455837</v>
       </c>
       <c r="R12" t="n">
         <v>84.58087727876456</v>
@@ -35579,13 +35579,13 @@
         <v>408.0146822712912</v>
       </c>
       <c r="N13" t="n">
-        <v>135.597052391241</v>
+        <v>396.750155265299</v>
       </c>
       <c r="O13" t="n">
         <v>366.6251455854785</v>
       </c>
       <c r="P13" t="n">
-        <v>297.1217521704096</v>
+        <v>35.96864929635159</v>
       </c>
       <c r="Q13" t="n">
         <v>128.0642415589032</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>66.48818084187684</v>
+        <v>385.6910363407806</v>
       </c>
       <c r="K14" t="n">
-        <v>120.4052143542844</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="L14" t="n">
-        <v>509.2011396954959</v>
+        <v>164.4694906693659</v>
       </c>
       <c r="M14" t="n">
         <v>195.9596772022534</v>
@@ -35667,7 +35667,7 @@
         <v>143.2331546178394</v>
       </c>
       <c r="Q14" t="n">
-        <v>451.1222331422574</v>
+        <v>87.8551013282723</v>
       </c>
       <c r="R14" t="n">
         <v>144.4429577282736</v>
@@ -35725,7 +35725,7 @@
         <v>9.804599448060312</v>
       </c>
       <c r="J15" t="n">
-        <v>31.90169490101393</v>
+        <v>278.031395885492</v>
       </c>
       <c r="K15" t="n">
         <v>509.2011396954959</v>
@@ -35737,19 +35737,19 @@
         <v>165.7569102594273</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3431519044972</v>
+        <v>176.0384480962656</v>
       </c>
       <c r="O15" t="n">
         <v>151.950871888023</v>
       </c>
       <c r="P15" t="n">
-        <v>509.2011396954959</v>
+        <v>449.7952652404852</v>
       </c>
       <c r="Q15" t="n">
         <v>55.81456567576151</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>84.58087727876456</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35813,7 +35813,7 @@
         <v>372.3792886721011</v>
       </c>
       <c r="M16" t="n">
-        <v>274.4110341506039</v>
+        <v>408.0146822712912</v>
       </c>
       <c r="N16" t="n">
         <v>396.750155265299</v>
@@ -35822,10 +35822,10 @@
         <v>366.6251455854785</v>
       </c>
       <c r="P16" t="n">
-        <v>297.1217521704096</v>
+        <v>35.96864929635159</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5147868055323457</v>
+        <v>128.0642415589032</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>164.4694906693659</v>
       </c>
       <c r="M17" t="n">
-        <v>195.9596772022534</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="N17" t="n">
         <v>201.0179767129889</v>
@@ -35904,7 +35904,7 @@
         <v>143.2331546178394</v>
       </c>
       <c r="Q17" t="n">
-        <v>465.7772893524995</v>
+        <v>152.5358268592568</v>
       </c>
       <c r="R17" t="n">
         <v>144.4429577282736</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.804599448060312</v>
       </c>
       <c r="J18" t="n">
-        <v>278.031395885492</v>
+        <v>31.90169490101393</v>
       </c>
       <c r="K18" t="n">
-        <v>86.49750610959703</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="L18" t="n">
-        <v>509.2011396954959</v>
+        <v>135.2567018921682</v>
       </c>
       <c r="M18" t="n">
-        <v>249.4957083138125</v>
+        <v>165.7569102594273</v>
       </c>
       <c r="N18" t="n">
         <v>176.0384480962656</v>
@@ -35980,10 +35980,10 @@
         <v>151.950871888023</v>
       </c>
       <c r="P18" t="n">
-        <v>509.2011396954959</v>
+        <v>370.4349778433501</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.81456567576151</v>
+        <v>465.885431336139</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36050,10 +36050,10 @@
         <v>372.3792886721011</v>
       </c>
       <c r="M19" t="n">
-        <v>408.0146822712912</v>
+        <v>146.8615793972331</v>
       </c>
       <c r="N19" t="n">
-        <v>135.5970523912408</v>
+        <v>396.750155265299</v>
       </c>
       <c r="O19" t="n">
         <v>366.6251455854785</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>396.5647736577649</v>
+        <v>360.0480999138582</v>
       </c>
       <c r="K20" t="n">
-        <v>498.3274023785116</v>
+        <v>120.4052143542844</v>
       </c>
       <c r="L20" t="n">
         <v>164.4694906693659</v>
@@ -36141,7 +36141,7 @@
         <v>143.2331546178394</v>
       </c>
       <c r="Q20" t="n">
-        <v>87.8551013282723</v>
+        <v>502.2939630964062</v>
       </c>
       <c r="R20" t="n">
         <v>144.4429577282736</v>
@@ -36202,7 +36202,7 @@
         <v>278.031395885492</v>
       </c>
       <c r="K21" t="n">
-        <v>239.1193335373789</v>
+        <v>434.8805500049403</v>
       </c>
       <c r="L21" t="n">
         <v>135.2567018921682</v>
@@ -36211,19 +36211,19 @@
         <v>165.7569102594273</v>
       </c>
       <c r="N21" t="n">
-        <v>509.2011396954959</v>
+        <v>176.0384480962656</v>
       </c>
       <c r="O21" t="n">
-        <v>509.2011396954959</v>
+        <v>151.950871888023</v>
       </c>
       <c r="P21" t="n">
         <v>114.0449892706629</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.81456567576151</v>
+        <v>465.885431336139</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>84.58087727876456</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>66.46630514622082</v>
+        <v>0.8083620842648713</v>
       </c>
       <c r="K22" t="n">
-        <v>241.9623075642979</v>
+        <v>174.0166025055665</v>
       </c>
       <c r="L22" t="n">
         <v>372.3792886721011</v>
       </c>
       <c r="M22" t="n">
-        <v>274.4110341506039</v>
+        <v>408.0146822712912</v>
       </c>
       <c r="N22" t="n">
         <v>396.750155265299</v>
@@ -36360,7 +36360,7 @@
         <v>396.5647736577649</v>
       </c>
       <c r="K23" t="n">
-        <v>498.3274023785116</v>
+        <v>120.4052143542844</v>
       </c>
       <c r="L23" t="n">
         <v>164.4694906693659</v>
@@ -36372,10 +36372,10 @@
         <v>201.0179767129889</v>
       </c>
       <c r="O23" t="n">
-        <v>184.3602410646737</v>
+        <v>196.3144440112443</v>
       </c>
       <c r="P23" t="n">
-        <v>143.2331546178394</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="Q23" t="n">
         <v>87.8551013282723</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>9.804599448060312</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>278.031395885492</v>
       </c>
       <c r="K24" t="n">
-        <v>252.9253719087835</v>
+        <v>86.49750610959703</v>
       </c>
       <c r="L24" t="n">
         <v>135.2567018921682</v>
       </c>
       <c r="M24" t="n">
-        <v>509.2011396954959</v>
+        <v>165.7569102594273</v>
       </c>
       <c r="N24" t="n">
-        <v>509.2011396954959</v>
+        <v>176.0384480962656</v>
       </c>
       <c r="O24" t="n">
         <v>151.950871888023</v>
       </c>
       <c r="P24" t="n">
-        <v>114.0449892706629</v>
+        <v>472.2326326140666</v>
       </c>
       <c r="Q24" t="n">
-        <v>55.81456567576151</v>
+        <v>465.885431336139</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>84.58087727876456</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36524,19 +36524,19 @@
         <v>372.3792886721011</v>
       </c>
       <c r="M25" t="n">
-        <v>274.4110341506039</v>
+        <v>408.0146822712912</v>
       </c>
       <c r="N25" t="n">
         <v>396.750155265299</v>
       </c>
       <c r="O25" t="n">
-        <v>366.6251455854785</v>
+        <v>105.4720427114204</v>
       </c>
       <c r="P25" t="n">
         <v>297.1217521704096</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.5147868055323457</v>
+        <v>128.0642415589032</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>396.5647736577649</v>
       </c>
       <c r="K26" t="n">
-        <v>120.4052143542844</v>
+        <v>260.6378688929169</v>
       </c>
       <c r="L26" t="n">
         <v>164.4694906693659</v>
@@ -36612,13 +36612,13 @@
         <v>184.3602410646737</v>
       </c>
       <c r="P26" t="n">
-        <v>143.2331546178394</v>
+        <v>509.201139695496</v>
       </c>
       <c r="Q26" t="n">
-        <v>465.7772893524995</v>
+        <v>87.8551013282723</v>
       </c>
       <c r="R26" t="n">
-        <v>144.4429577282736</v>
+        <v>16.16450613621186</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.804599448060312</v>
       </c>
       <c r="J27" t="n">
         <v>278.031395885492</v>
       </c>
       <c r="K27" t="n">
-        <v>196.1033351325349</v>
+        <v>434.8805500049407</v>
       </c>
       <c r="L27" t="n">
         <v>135.2567018921682</v>
@@ -36685,7 +36685,7 @@
         <v>165.7569102594273</v>
       </c>
       <c r="N27" t="n">
-        <v>509.2011396954959</v>
+        <v>176.0384480962656</v>
       </c>
       <c r="O27" t="n">
         <v>151.950871888023</v>
@@ -36697,7 +36697,7 @@
         <v>465.885431336139</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>84.58087727876456</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8083620842648713</v>
+        <v>66.46630514622082</v>
       </c>
       <c r="K28" t="n">
-        <v>241.9623075642979</v>
+        <v>33.59847565953613</v>
       </c>
       <c r="L28" t="n">
         <v>372.3792886721011</v>
       </c>
       <c r="M28" t="n">
-        <v>212.5195224591891</v>
+        <v>408.0146822712912</v>
       </c>
       <c r="N28" t="n">
         <v>396.750155265299</v>
@@ -36773,7 +36773,7 @@
         <v>297.1217521704096</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.0642415589032</v>
+        <v>75.27497058960711</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>396.5647736577649</v>
+        <v>66.48818084187684</v>
       </c>
       <c r="K29" t="n">
         <v>120.4052143542844</v>
@@ -36846,13 +36846,13 @@
         <v>201.0179767129889</v>
       </c>
       <c r="O29" t="n">
-        <v>184.3602410646737</v>
+        <v>477.9201601366551</v>
       </c>
       <c r="P29" t="n">
         <v>143.2331546178394</v>
       </c>
       <c r="Q29" t="n">
-        <v>465.7772893524995</v>
+        <v>502.2939630964062</v>
       </c>
       <c r="R29" t="n">
         <v>144.4429577282736</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>278.031395885492</v>
+        <v>31.90169490101393</v>
       </c>
       <c r="K30" t="n">
-        <v>509.2011396954959</v>
+        <v>86.49750610959703</v>
       </c>
       <c r="L30" t="n">
-        <v>135.2567018921682</v>
+        <v>509.201139695496</v>
       </c>
       <c r="M30" t="n">
         <v>165.7569102594273</v>
       </c>
       <c r="N30" t="n">
-        <v>509.2011396954959</v>
+        <v>176.0384480962656</v>
       </c>
       <c r="O30" t="n">
-        <v>151.950871888023</v>
+        <v>397.2384936481213</v>
       </c>
       <c r="P30" t="n">
-        <v>114.0449892706629</v>
+        <v>509.201139695496</v>
       </c>
       <c r="Q30" t="n">
-        <v>68.2067494944132</v>
+        <v>55.81456567576151</v>
       </c>
       <c r="R30" t="n">
         <v>84.58087727876456</v>
@@ -36998,7 +36998,7 @@
         <v>372.3792886721011</v>
       </c>
       <c r="M31" t="n">
-        <v>274.4110341506039</v>
+        <v>146.8615793972334</v>
       </c>
       <c r="N31" t="n">
         <v>396.750155265299</v>
@@ -37010,7 +37010,7 @@
         <v>297.1217521704096</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.5147868055323457</v>
+        <v>128.0642415589032</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>396.5647736577649</v>
       </c>
       <c r="K32" t="n">
-        <v>153.5957533523818</v>
+        <v>120.4052143542844</v>
       </c>
       <c r="L32" t="n">
-        <v>509.201139695496</v>
+        <v>164.4694906693659</v>
       </c>
       <c r="M32" t="n">
         <v>195.9596772022534</v>
@@ -37089,7 +37089,7 @@
         <v>143.2331546178394</v>
       </c>
       <c r="Q32" t="n">
-        <v>87.8551013282723</v>
+        <v>465.7772893524997</v>
       </c>
       <c r="R32" t="n">
         <v>144.4429577282736</v>
@@ -37150,7 +37150,7 @@
         <v>278.031395885492</v>
       </c>
       <c r="K33" t="n">
-        <v>86.49750610959703</v>
+        <v>434.8805500049403</v>
       </c>
       <c r="L33" t="n">
         <v>135.2567018921682</v>
@@ -37162,16 +37162,16 @@
         <v>176.0384480962656</v>
       </c>
       <c r="O33" t="n">
-        <v>189.7586426372982</v>
+        <v>151.950871888023</v>
       </c>
       <c r="P33" t="n">
-        <v>509.201139695496</v>
+        <v>114.0449892706629</v>
       </c>
       <c r="Q33" t="n">
         <v>465.885431336139</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>84.58087727876456</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>66.46630514622082</v>
+        <v>0.8083620842648713</v>
       </c>
       <c r="K34" t="n">
         <v>241.9623075642979</v>
@@ -37235,7 +37235,7 @@
         <v>372.3792886721011</v>
       </c>
       <c r="M34" t="n">
-        <v>146.8615793972334</v>
+        <v>408.0146822712912</v>
       </c>
       <c r="N34" t="n">
         <v>396.750155265299</v>
@@ -37244,10 +37244,10 @@
         <v>366.6251455854785</v>
       </c>
       <c r="P34" t="n">
-        <v>297.1217521704096</v>
+        <v>229.1760471116787</v>
       </c>
       <c r="Q34" t="n">
-        <v>128.0642415589032</v>
+        <v>0.5147868055323457</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>396.5647736577649</v>
+        <v>360.0480999138582</v>
       </c>
       <c r="K35" t="n">
         <v>120.4052143542844</v>
@@ -37326,7 +37326,7 @@
         <v>143.2331546178394</v>
       </c>
       <c r="Q35" t="n">
-        <v>465.7772893524995</v>
+        <v>502.2939630964062</v>
       </c>
       <c r="R35" t="n">
         <v>144.4429577282736</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>9.804599448060312</v>
       </c>
       <c r="J36" t="n">
         <v>278.031395885492</v>
       </c>
       <c r="K36" t="n">
-        <v>509.2011396954959</v>
+        <v>434.8805500049405</v>
       </c>
       <c r="L36" t="n">
-        <v>170.2363041639821</v>
+        <v>135.2567018921682</v>
       </c>
       <c r="M36" t="n">
         <v>165.7569102594273</v>
@@ -37402,13 +37402,13 @@
         <v>151.950871888023</v>
       </c>
       <c r="P36" t="n">
-        <v>509.2011396954959</v>
+        <v>114.0449892706629</v>
       </c>
       <c r="Q36" t="n">
-        <v>55.81456567576151</v>
+        <v>465.885431336139</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>84.58087727876456</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,7 +37469,7 @@
         <v>241.9623075642979</v>
       </c>
       <c r="L37" t="n">
-        <v>238.7756405514138</v>
+        <v>372.3792886721011</v>
       </c>
       <c r="M37" t="n">
         <v>408.0146822712912</v>
@@ -37478,13 +37478,13 @@
         <v>396.750155265299</v>
       </c>
       <c r="O37" t="n">
-        <v>366.6251455854785</v>
+        <v>105.4720427114204</v>
       </c>
       <c r="P37" t="n">
         <v>297.1217521704096</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.5147868055323457</v>
+        <v>128.0642415589032</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,10 +37545,10 @@
         <v>396.5647736577649</v>
       </c>
       <c r="K38" t="n">
-        <v>120.4052143542844</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="L38" t="n">
-        <v>164.4694906693659</v>
+        <v>281.8742049444432</v>
       </c>
       <c r="M38" t="n">
         <v>195.9596772022534</v>
@@ -37563,10 +37563,10 @@
         <v>143.2331546178394</v>
       </c>
       <c r="Q38" t="n">
-        <v>465.7772893524997</v>
+        <v>87.8551013282723</v>
       </c>
       <c r="R38" t="n">
-        <v>144.4429577282736</v>
+        <v>16.16450613621186</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>9.804599448060312</v>
       </c>
       <c r="J39" t="n">
         <v>278.031395885492</v>
       </c>
       <c r="K39" t="n">
-        <v>509.201139695496</v>
+        <v>86.49750610959703</v>
       </c>
       <c r="L39" t="n">
-        <v>509.201139695496</v>
+        <v>135.2567018921682</v>
       </c>
       <c r="M39" t="n">
-        <v>221.9482251527467</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="N39" t="n">
         <v>176.0384480962656</v>
@@ -37639,13 +37639,13 @@
         <v>151.950871888023</v>
       </c>
       <c r="P39" t="n">
-        <v>114.0449892706629</v>
+        <v>118.9838037299379</v>
       </c>
       <c r="Q39" t="n">
-        <v>55.81456567576151</v>
+        <v>465.885431336139</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>84.58087727876456</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>66.46630514622082</v>
       </c>
       <c r="K40" t="n">
-        <v>33.59847565953613</v>
+        <v>241.9623075642979</v>
       </c>
       <c r="L40" t="n">
         <v>372.3792886721011</v>
       </c>
       <c r="M40" t="n">
-        <v>408.0146822712912</v>
+        <v>146.8615793972331</v>
       </c>
       <c r="N40" t="n">
         <v>396.750155265299</v>
@@ -37718,7 +37718,7 @@
         <v>366.6251455854785</v>
       </c>
       <c r="P40" t="n">
-        <v>244.3324812011136</v>
+        <v>297.1217521704096</v>
       </c>
       <c r="Q40" t="n">
         <v>128.0642415589032</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>396.5647736577649</v>
+        <v>66.48818084187684</v>
       </c>
       <c r="K41" t="n">
         <v>120.4052143542844</v>
@@ -37797,13 +37797,13 @@
         <v>184.3602410646737</v>
       </c>
       <c r="P41" t="n">
-        <v>143.2331546178394</v>
+        <v>436.7930736898204</v>
       </c>
       <c r="Q41" t="n">
         <v>502.2939630964062</v>
       </c>
       <c r="R41" t="n">
-        <v>107.9262839843667</v>
+        <v>144.4429577282736</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>9.804599448060312</v>
       </c>
       <c r="J42" t="n">
         <v>278.031395885492</v>
       </c>
       <c r="K42" t="n">
-        <v>509.2011396954959</v>
+        <v>86.49750610959703</v>
       </c>
       <c r="L42" t="n">
-        <v>480.8115773100504</v>
+        <v>135.2567018921682</v>
       </c>
       <c r="M42" t="n">
         <v>165.7569102594273</v>
@@ -37876,10 +37876,10 @@
         <v>151.950871888023</v>
       </c>
       <c r="P42" t="n">
-        <v>114.0449892706629</v>
+        <v>462.4280331660065</v>
       </c>
       <c r="Q42" t="n">
-        <v>55.81456567576151</v>
+        <v>465.885431336139</v>
       </c>
       <c r="R42" t="n">
         <v>84.58087727876456</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.46630514622082</v>
+        <v>0.8083620842648713</v>
       </c>
       <c r="K43" t="n">
-        <v>241.9623075642979</v>
+        <v>174.0166025055665</v>
       </c>
       <c r="L43" t="n">
         <v>372.3792886721011</v>
@@ -37949,7 +37949,7 @@
         <v>408.0146822712912</v>
       </c>
       <c r="N43" t="n">
-        <v>135.5970523912408</v>
+        <v>396.750155265299</v>
       </c>
       <c r="O43" t="n">
         <v>366.6251455854785</v>
@@ -37958,7 +37958,7 @@
         <v>297.1217521704096</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.0642415589032</v>
+        <v>0.5147868055323457</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>396.5647736577649</v>
+        <v>66.48818084187684</v>
       </c>
       <c r="K44" t="n">
         <v>120.4052143542844</v>
       </c>
       <c r="L44" t="n">
-        <v>164.4694906693659</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="M44" t="n">
         <v>195.9596772022534</v>
       </c>
       <c r="N44" t="n">
-        <v>201.0179767129889</v>
+        <v>367.7226614882134</v>
       </c>
       <c r="O44" t="n">
-        <v>184.3602410646737</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="P44" t="n">
         <v>143.2331546178394</v>
       </c>
       <c r="Q44" t="n">
-        <v>465.7772893524995</v>
+        <v>87.8551013282723</v>
       </c>
       <c r="R44" t="n">
-        <v>144.4429577282736</v>
+        <v>16.16450613621186</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>66.46630514622082</v>
       </c>
       <c r="K46" t="n">
-        <v>241.9623075642979</v>
+        <v>108.3586594436105</v>
       </c>
       <c r="L46" t="n">
         <v>372.3792886721011</v>
@@ -38192,10 +38192,10 @@
         <v>366.6251455854785</v>
       </c>
       <c r="P46" t="n">
-        <v>35.96864929635159</v>
+        <v>297.1217521704096</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.0642415589032</v>
+        <v>0.5147868055323457</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
